--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>59650000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>71109000</v>
+      </c>
+      <c r="F8" s="3">
         <v>68291000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>72676000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>66321000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>75677000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>79468000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>75439000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>68172000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>67816000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>60018000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>56511000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>55863000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>51007000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>55159000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>59602000</v>
+      </c>
+      <c r="F9" s="3">
         <v>57788000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>61388000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>53937000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>65311000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>67125000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>64037000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>57232000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>57794000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>50260000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>48316000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>46663000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>44003000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11507000</v>
+      </c>
+      <c r="F10" s="3">
         <v>10503000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>11288000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>12384000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>10366000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>12343000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>11402000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>10940000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10022000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9758000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8195000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>9200000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7004000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,52 +896,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F12" s="3">
         <v>185000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>146000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>367000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>457000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>310000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>164000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>514000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>149000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>80000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>97000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>151000</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,96 +992,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1154000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3672000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3499000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>908000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>122000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>59000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>633000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>354000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>72000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2321000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>317000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>954000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>704000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>435000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4059000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4434000</v>
+      </c>
+      <c r="F15" s="3">
         <v>4297000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4588000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4461000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3987000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3728000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3811000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3931000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4045000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3904000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3793000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3842000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3642000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63258000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>70970000</v>
+      </c>
+      <c r="F17" s="3">
         <v>68417000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>69676000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>61654000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>73469000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>74597000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>71295000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>64543000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>67290000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>57195000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>55700000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>53713000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>50804000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3608000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>139000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-126000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3000000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4667000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2208000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4871000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4144000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3629000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>526000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2823000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>811000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2150000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>203000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1233,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-916000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F20" s="3">
         <v>101000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>148000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>115000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>180000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>563000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>846000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>282000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>656000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>132000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>117000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>414000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-367000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4207000</v>
+      </c>
+      <c r="F21" s="3">
         <v>4748000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>7736000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9243000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6375000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>9162000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8801000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>7842000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3996000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>7076000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5474000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>6218000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3151000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4524000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>249000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3148000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4782000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2388000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>5434000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4990000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3911000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1182000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2955000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>928000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2115000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>617000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>231000</v>
+      </c>
+      <c r="F24" s="3">
         <v>706000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1244000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1783000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1617000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2031000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2117000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1501000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>260000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1198000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>772000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>623000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>74000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4385000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-731000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1904000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2999000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>771000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3403000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2873000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2410000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>922000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1757000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>156000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1492000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>543000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4365000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-749000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1821000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2934000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>766000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3349000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2798000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2348000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>886000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1769000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>143000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1449000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>497000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1579,26 +1699,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>121000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>916000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-101000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-148000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-115000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-180000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-563000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-846000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-282000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-656000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-132000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-117000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-414000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4365000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-749000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1821000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2934000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>766000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3349000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2798000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2469000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1769000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>143000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1449000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>497000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4365000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-749000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1821000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2934000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>766000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3349000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2798000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2469000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1769000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>143000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1449000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>497000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,404 +2128,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18139000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22472000</v>
+      </c>
+      <c r="F41" s="3">
         <v>19692000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20674000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21256000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22468000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>26192000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>22185000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>22242000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>25586000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>25780000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>23270000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23794000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23484000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>169000</v>
+      </c>
+      <c r="F42" s="3">
         <v>114000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>135000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>134000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>222000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>100000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>106000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>114000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>125000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>84000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>77000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>39000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>44000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19166000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26063000</v>
+      </c>
+      <c r="F43" s="3">
         <v>24228000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>25586000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>25795000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>25823000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>28593000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>26211000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>24645000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>25800000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22846000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>21482000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>22378000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>22128000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11641000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20880000</v>
+      </c>
+      <c r="F44" s="3">
         <v>19240000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>20042000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>21426000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>17988000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>21894000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>21004000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>20802000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>19011000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>18078000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>16449000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>17236000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>17655000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15270000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12475000</v>
+      </c>
+      <c r="F45" s="3">
         <v>12633000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5106000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4086000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4809000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8873000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7185000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4393000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4446000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5581000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3440000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3559000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4502000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64304000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>82059000</v>
+      </c>
+      <c r="F46" s="3">
         <v>75907000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>71543000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>72697000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>71310000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>85652000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>76691000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>72196000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>74968000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>72369000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>64718000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>67006000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>67813000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30751000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>34378000</v>
+      </c>
+      <c r="F47" s="3">
         <v>32114000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>32309000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>31796000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>30132000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>29491000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>29389000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>29278000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>28310000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>25689000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>26971000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>27258000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>25740000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>130226000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>132642000</v>
+      </c>
+      <c r="F48" s="3">
         <v>134661000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>145291000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>144625000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>135261000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>122661000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>124390000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>129002000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>129471000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>130651000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>130715000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>129817000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>129757000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27247000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>27407000</v>
+      </c>
+      <c r="F49" s="3">
         <v>26796000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>27789000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>28782000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>29488000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>29126000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>29127000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>29713000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>29906000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>30100000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>28794000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>29622000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>29377000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21336000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18708000</v>
+      </c>
+      <c r="F52" s="3">
         <v>16785000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16230000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>15381000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>15985000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>16012000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>16029000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>15098000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13860000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>12680000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>11917000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>11256000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>10629000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>273864000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>295194000</v>
+      </c>
+      <c r="F54" s="3">
         <v>286263000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>293162000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>293281000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>282176000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>282942000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>275626000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>275287000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>276515000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>271489000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>263115000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>264959000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>263316000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34420000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>46829000</v>
+      </c>
+      <c r="F57" s="3">
         <v>43203000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>44774000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>46749000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>46265000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>47125000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>46635000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>42995000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>44209000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>39965000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>36642000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>37548000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>37915000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14473000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12554000</v>
+      </c>
+      <c r="F58" s="3">
         <v>9568000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>10771000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>13579000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9373000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9175000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10625000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9028000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7739000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>8891000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7385000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7360000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6634000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14805000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14212000</v>
+      </c>
+      <c r="F59" s="3">
         <v>12197000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11310000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>10944000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12599000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13627000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12271000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11784000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12778000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10710000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10815000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11218000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13805000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63698000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>73595000</v>
+      </c>
+      <c r="F60" s="3">
         <v>64968000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>66855000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>71272000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>68237000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>69927000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>69531000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>63807000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>64726000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>59566000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>54842000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>56126000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>58354000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>64017000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>64892000</v>
+      </c>
+      <c r="F61" s="3">
         <v>65938000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>67161000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>62705000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>56426000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>54960000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>49733000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>53161000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>55491000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>56893000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>55619000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>54472000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>51666000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55669000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>55999000</v>
+      </c>
+      <c r="F62" s="3">
         <v>55342000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>55523000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>55968000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>55965000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>54635000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>54592000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>56154000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>55894000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>54892000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>54193000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>55079000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>56453000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>185578000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>196782000</v>
+      </c>
+      <c r="F66" s="3">
         <v>188341000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>191677000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>192082000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>182732000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>181454000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>175805000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>175100000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>178024000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>172968000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>166312000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>167319000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>168030000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,13 +3484,19 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>21000</v>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>21000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>102410000</v>
+      </c>
+      <c r="F72" s="3">
         <v>102690000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>105374000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>105408000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>107393000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>107090000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>104824000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>102600000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>103858000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>102741000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>101791000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>102726000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>104257000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88286000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>98391000</v>
+      </c>
+      <c r="F76" s="3">
         <v>97901000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>101464000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>101178000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>99423000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>101467000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>99800000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100166000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>98470000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>98500000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>96782000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>97619000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>95265000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4365000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-749000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1821000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2934000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>766000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3349000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2798000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2469000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1769000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>143000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1449000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>497000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4157000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="F83" s="3">
         <v>4773000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4588000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4461000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3987000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3728000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3811000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3931000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2814000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4121000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4546000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4103000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2534000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>952000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7603000</v>
+      </c>
+      <c r="F89" s="3">
         <v>6056000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6815000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5296000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6829000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6092000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6306000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3646000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5903000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>6024000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4890000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2114000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2428000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3789000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3936000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3117000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3229000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2102000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2076000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1985000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1713000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-589000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2245000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>254000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1822000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>631000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-118000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-105000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-56000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-314000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>145000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>29000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>146000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>202000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>167000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-649000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4333000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-982000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-582000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4007000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-57000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-194000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2510000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-524000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>310000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31676000</v>
+      </c>
+      <c r="E8" s="3">
         <v>59650000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71109000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>68291000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72676000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66321000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75677000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>79468000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75439000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68172000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67816000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>60018000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56511000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>55863000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>51007000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24082000</v>
+      </c>
+      <c r="E9" s="3">
         <v>55159000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59602000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57788000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61388000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53937000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65311000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>67125000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64037000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57232000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57794000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50260000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48316000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46663000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44003000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7594000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4491000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11507000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10503000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11288000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12384000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10366000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12343000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11402000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10940000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10022000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9758000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8195000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9200000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7004000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9674000</v>
+      </c>
+      <c r="E12" s="3">
         <v>202000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>266000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>185000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>146000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>367000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>457000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>310000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>164000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>514000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>149000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>80000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>97000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>151000</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,108 +1014,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11727000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1154000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3672000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3499000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>908000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>122000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>59000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>633000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>354000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>72000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2321000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>317000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>954000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>704000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>435000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3937000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4059000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4434000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4297000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4588000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4461000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3987000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3728000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3811000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3931000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4045000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3904000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3793000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3842000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3642000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51929000</v>
+      </c>
+      <c r="E17" s="3">
         <v>63258000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70970000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68417000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69676000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61654000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73469000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>74597000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71295000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64543000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67290000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57195000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55700000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53713000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>50804000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20253000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>139000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-126000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4667000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2208000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4871000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4144000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3629000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>526000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2823000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>811000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2150000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>203000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1351000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-916000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>110000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>101000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>148000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>115000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>180000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>563000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>846000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>282000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>656000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>132000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>117000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>414000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8049000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-367000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4207000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4748000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7736000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9243000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6375000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9162000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8801000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7842000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3996000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7076000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5474000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6218000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3151000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21604000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>249000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3148000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4782000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2388000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5434000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4990000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3911000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1182000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2955000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>928000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2115000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>617000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4082000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-139000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>231000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>706000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1244000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1783000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1617000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2031000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2117000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1501000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>260000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1198000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>772000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>623000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17522000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-731000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1904000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2999000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>771000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3403000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2873000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2410000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>922000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1757000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>156000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1492000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>543000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16849000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-749000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1821000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2934000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>766000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3349000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2798000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2348000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>886000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1769000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>143000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1449000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>497000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1705,8 +1765,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1715,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>121000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E32" s="3">
         <v>916000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-110000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-101000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-148000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-115000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-180000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-563000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-846000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-282000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-656000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-132000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-117000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-414000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16849000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-749000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1821000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2934000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>766000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3349000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2798000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2469000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1769000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>143000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1449000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>497000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16849000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-749000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1821000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2934000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>766000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3349000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2798000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2469000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1769000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>143000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1449000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>497000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2215,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34217000</v>
+      </c>
+      <c r="E41" s="3">
         <v>18139000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22472000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19692000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20674000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21256000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22468000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26192000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22185000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22242000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25586000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25780000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23270000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23794000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23484000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E42" s="3">
         <v>88000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>169000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>135000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>134000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>222000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>100000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>106000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>125000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>84000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>77000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>39000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>44000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17529000</v>
+      </c>
+      <c r="E43" s="3">
         <v>19166000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26063000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24228000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25586000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25795000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25823000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28593000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26211000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24645000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25800000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22846000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21482000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22378000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22128000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12504000</v>
+      </c>
+      <c r="E44" s="3">
         <v>11641000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20880000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19240000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20042000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21426000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17988000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>21894000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21004000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20802000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19011000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18078000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16449000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17236000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17655000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9599000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15270000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12475000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12633000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5106000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4086000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4809000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8873000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7185000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4393000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4446000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5581000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3440000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3559000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4502000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>73971000</v>
+      </c>
+      <c r="E46" s="3">
         <v>64304000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>82059000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>75907000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>71543000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72697000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>71310000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>85652000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76691000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72196000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>74968000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72369000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>64718000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>67006000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>67813000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32550000</v>
+      </c>
+      <c r="E47" s="3">
         <v>30751000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34378000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32114000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32309000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31796000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30132000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29491000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29389000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29278000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28310000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25689000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26971000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27258000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25740000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117208000</v>
+      </c>
+      <c r="E48" s="3">
         <v>130226000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132642000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>134661000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>145291000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>144625000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135261000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122661000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>124390000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>129002000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>129471000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>130651000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>130715000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>129817000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>129757000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18339000</v>
+      </c>
+      <c r="E49" s="3">
         <v>27247000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27407000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26796000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27789000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28782000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29488000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29126000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29127000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29713000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29906000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30100000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28794000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29622000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29377000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21113000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21336000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18708000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16785000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16230000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15381000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15985000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16012000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16029000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15098000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13860000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12680000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11917000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11256000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10629000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>263181000</v>
+      </c>
+      <c r="E54" s="3">
         <v>273864000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>295194000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>286263000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>293162000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>293281000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>282176000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>282942000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275626000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275287000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>276515000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>271489000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>263115000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>264959000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>263316000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32134000</v>
+      </c>
+      <c r="E57" s="3">
         <v>34420000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46829000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43203000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44774000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46749000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46265000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47125000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46635000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42995000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44209000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39965000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36642000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37548000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37915000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13410000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14473000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12554000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9568000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10771000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13579000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9373000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9175000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10625000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9028000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7739000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8891000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7385000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7360000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6634000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11529000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14805000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14212000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12197000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11310000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10944000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12599000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13627000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12271000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11784000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12778000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10710000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10815000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11218000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13805000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57073000</v>
+      </c>
+      <c r="E60" s="3">
         <v>63698000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73595000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64968000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66855000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71272000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68237000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>69927000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>69531000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63807000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64726000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59566000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54842000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56126000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>58354000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71900000</v>
+      </c>
+      <c r="E61" s="3">
         <v>64017000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>64892000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>65938000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>67161000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>62705000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>56426000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>54960000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49733000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>53161000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>55491000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>56893000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>55619000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>54472000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51666000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51397000</v>
+      </c>
+      <c r="E62" s="3">
         <v>55669000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55999000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55342000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55523000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55968000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55965000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54635000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54592000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56154000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55894000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54892000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54193000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55079000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56453000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>194317000</v>
+      </c>
+      <c r="E66" s="3">
         <v>185578000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>196782000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>188341000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>191677000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>192082000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>182732000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>181454000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>175805000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>175100000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>178024000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>172968000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>166312000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>167319000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>168030000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3499,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>21000</v>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
         <v>102410000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>102690000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>105374000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>105408000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>107393000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>107090000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>104824000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>102600000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>103858000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>102741000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>101791000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>102726000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>104257000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68864000</v>
+      </c>
+      <c r="E76" s="3">
         <v>88286000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98391000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97901000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>101464000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101178000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>99423000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101467000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99800000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100166000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>98470000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>98500000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>96782000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>97619000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>95265000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16849000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-749000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1821000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2934000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>766000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3349000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2798000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2469000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1769000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>143000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1449000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>497000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13555000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4157000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3958000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4773000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4588000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4461000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3987000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3728000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3811000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3931000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2814000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4121000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4546000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4103000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2534000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3737000</v>
+      </c>
+      <c r="E89" s="3">
         <v>952000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7603000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6056000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6815000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5296000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6829000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6092000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6306000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3646000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5903000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6024000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4890000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2114000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2428000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3018000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1844000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2119000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14663000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-589000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2245000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>254000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1822000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>631000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-183000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>119000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-118000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>32000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-105000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-56000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-314000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>145000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>29000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>146000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>202000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>167000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-649000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16514000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2780000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-982000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-582000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4007000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-194000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2510000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-524000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>310000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44251000</v>
+      </c>
+      <c r="E8" s="3">
         <v>31676000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59650000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71109000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>68291000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>72676000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66321000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75677000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79468000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75439000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68172000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67816000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>60018000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56511000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>55863000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>51007000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36795000</v>
+      </c>
+      <c r="E9" s="3">
         <v>24082000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55159000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59602000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57788000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61388000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53937000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65311000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67125000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64037000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57232000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57794000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50260000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48316000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>46663000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44003000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7456000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7594000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4491000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11507000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10503000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11288000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12384000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10366000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12343000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11402000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10940000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10022000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9758000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8195000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9200000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7004000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +923,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9674000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>202000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>266000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>185000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>146000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>367000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>457000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>310000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>164000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>514000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>149000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>80000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>97000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>151000</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,114 +1033,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11727000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1154000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3672000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3499000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>908000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>122000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>59000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>633000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>354000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>72000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2321000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>317000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>954000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>704000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>435000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3467000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3937000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4059000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4434000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4297000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4588000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4461000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3987000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3728000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3811000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3931000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4045000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3904000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3793000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3842000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3642000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43217000</v>
+      </c>
+      <c r="E17" s="3">
         <v>51929000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63258000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70970000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>68417000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>69676000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61654000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73469000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74597000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71295000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64543000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67290000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>57195000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55700000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>53713000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>50804000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>139000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-126000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4667000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2208000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4871000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4144000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3629000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>526000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2823000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>811000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2150000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>203000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1300,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-884000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-916000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>110000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>101000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>148000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>115000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>180000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>563000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>846000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>282000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>656000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>132000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>117000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>414000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3667000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-367000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4207000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4748000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7736000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9243000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6375000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9162000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8801000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7842000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3996000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7076000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5474000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6218000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3151000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>249000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3148000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4782000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2388000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5434000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4990000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3911000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1182000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2955000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>928000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2115000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>617000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-139000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>231000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>706000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1244000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1783000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1617000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2031000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2117000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1501000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>260000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1198000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>772000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>623000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-307000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-731000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1904000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2999000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>771000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3403000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2873000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2410000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>922000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1757000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>156000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1492000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>543000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-749000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1821000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2934000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>766000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3349000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2798000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2348000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>886000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1769000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>143000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1449000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>497000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,8 +1828,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1778,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>121000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1351000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>916000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-110000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-101000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-148000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-115000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-180000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-563000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-846000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-282000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-656000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-132000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-414000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-749000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1821000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2934000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>766000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3349000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2798000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2469000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1769000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>143000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1449000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>497000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-749000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1821000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2934000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>766000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3349000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2798000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2469000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1769000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>143000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1449000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>497000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,485 +2301,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30749000</v>
+      </c>
+      <c r="E41" s="3">
         <v>34217000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18139000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22472000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19692000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20674000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21256000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22468000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26192000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22185000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22242000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25586000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25780000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23270000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23794000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23484000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E42" s="3">
         <v>122000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>88000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>169000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>135000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>134000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>222000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>106000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>125000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>84000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>77000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>39000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>44000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17190000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17529000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19166000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26063000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24228000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25586000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25795000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25823000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28593000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26211000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24645000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25800000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22846000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21482000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22378000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22128000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13840000</v>
+      </c>
+      <c r="E44" s="3">
         <v>12504000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11641000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20880000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19240000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20042000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>21426000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17988000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21894000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21004000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20802000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>19011000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18078000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16449000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17236000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17655000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8748000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9599000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15270000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12475000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12633000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5106000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4086000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4809000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8873000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7185000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4393000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4446000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5581000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3440000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3559000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4502000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70825000</v>
+      </c>
+      <c r="E46" s="3">
         <v>73971000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>64304000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>82059000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75907000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71543000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72697000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>71310000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>85652000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76691000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72196000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>74968000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>72369000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>64718000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>67006000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>67813000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32271000</v>
+      </c>
+      <c r="E47" s="3">
         <v>32550000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30751000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34378000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32114000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32309000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31796000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30132000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29491000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29389000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29278000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28310000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25689000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26971000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27258000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25740000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116580000</v>
+      </c>
+      <c r="E48" s="3">
         <v>117208000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>130226000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>132642000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>134661000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>145291000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144625000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>135261000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122661000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124390000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>129002000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>129471000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>130651000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130715000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>129817000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>129757000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18750000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18339000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27247000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27407000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26796000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27789000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28782000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29488000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29126000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29127000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29713000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29906000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30100000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28794000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29622000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29377000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21824000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21113000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21336000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18708000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16785000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16230000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15381000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15985000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16012000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16029000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15098000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13860000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12680000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11917000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11256000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10629000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>260250000</v>
+      </c>
+      <c r="E54" s="3">
         <v>263181000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>273864000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>295194000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>286263000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>293162000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>293281000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>282176000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>282942000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275626000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>275287000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>276515000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271489000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>263115000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>264959000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>263316000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33823000</v>
+      </c>
+      <c r="E57" s="3">
         <v>32134000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34420000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46829000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43203000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44774000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46749000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46265000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47125000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46635000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42995000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44209000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39965000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36642000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37548000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37915000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12920000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13410000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14473000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12554000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9568000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10771000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13579000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9373000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9175000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10625000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9028000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7739000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8891000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7385000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7360000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6634000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11334000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11529000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14805000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14212000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12197000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11310000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10944000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12599000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13627000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12271000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11784000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12778000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10710000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10815000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11218000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13805000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>58077000</v>
+      </c>
+      <c r="E60" s="3">
         <v>57073000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63698000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73595000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64968000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66855000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71272000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68237000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>69927000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69531000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63807000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64726000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>59566000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54842000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56126000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>58354000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>69171000</v>
+      </c>
+      <c r="E61" s="3">
         <v>71900000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>64017000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>64892000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>65938000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>67161000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>62705000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>56426000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54960000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>49733000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>53161000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>55491000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>56893000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>55619000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>54472000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51666000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50847000</v>
+      </c>
+      <c r="E62" s="3">
         <v>51397000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55669000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55999000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55342000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55523000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55968000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55965000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54635000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54592000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56154000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55894000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54892000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54193000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55079000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56453000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>192295000</v>
+      </c>
+      <c r="E66" s="3">
         <v>194317000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>185578000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>196782000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>188341000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>191677000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>192082000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>182732000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181454000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>175805000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>175100000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>178024000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>172968000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>166312000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>167319000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>168030000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3669,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>21000</v>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,8 +3933,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3774,50 +3947,53 @@
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
         <v>102410000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>102690000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>105374000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>105408000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>107393000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>107090000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>104824000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>102600000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>103858000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>102741000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>101791000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>102726000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>104257000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67955000</v>
+      </c>
+      <c r="E76" s="3">
         <v>68864000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88286000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98391000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>97901000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101464000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>101178000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>99423000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101467000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>99800000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100166000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>98470000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>98500000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96782000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>97619000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>95265000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-749000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1821000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2934000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>766000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3349000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2798000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2469000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1769000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>143000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1449000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>497000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3517000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13555000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4157000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3958000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4773000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4588000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4461000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3987000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3728000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3811000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3931000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2814000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4121000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4546000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4103000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2534000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5204000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3737000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>952000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7603000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6056000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6815000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5296000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6829000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6092000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6306000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3646000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5903000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6024000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4890000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2114000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2428000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2577000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3470000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1060000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5590000</v>
+      </c>
+      <c r="E100" s="3">
         <v>14663000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-589000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2245000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>254000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1822000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>631000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-42000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-183000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>119000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-118000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>32000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-105000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-56000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-314000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>145000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>29000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>146000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>202000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>167000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-649000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3588000</v>
+      </c>
+      <c r="E102" s="3">
         <v>16514000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2780000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-982000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-582000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4007000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-57000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-194000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2510000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-524000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>310000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44789000</v>
+      </c>
+      <c r="E8" s="3">
         <v>44251000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31676000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59650000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71109000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>68291000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>72676000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66321000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75677000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79468000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75439000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68172000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67816000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>60018000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56511000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>55863000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>51007000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39002000</v>
+      </c>
+      <c r="E9" s="3">
         <v>36795000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24082000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>55159000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59602000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57788000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61388000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53937000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65311000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67125000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64037000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57232000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57794000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50260000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48316000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>46663000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44003000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5787000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7456000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7594000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4491000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11507000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10503000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11288000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12384000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10366000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12343000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11402000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10940000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10022000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9758000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8195000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9200000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7004000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,64 +936,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E12" s="3">
         <v>190000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9674000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>202000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>266000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>185000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>146000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>367000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>457000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>310000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>164000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>514000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>149000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>80000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>97000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>151000</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,120 +1052,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1449000</v>
+      </c>
+      <c r="E14" s="3">
         <v>330000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11727000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1154000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3672000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3499000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>908000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>122000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>59000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>633000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>354000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>72000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2321000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>317000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>954000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>704000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>435000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3426000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3467000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3937000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4059000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4434000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4297000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4588000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4461000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3987000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3728000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3811000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3931000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4045000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3904000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3793000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3842000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3642000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43962000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43217000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51929000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63258000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70970000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>68417000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69676000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61654000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73469000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74597000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71295000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64543000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67290000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57195000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55700000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53713000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>50804000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>827000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1034000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>139000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-126000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4667000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2208000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4871000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4144000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3629000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>526000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2823000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>811000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2150000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>203000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-884000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-916000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>110000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>101000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>148000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>115000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>180000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>563000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>846000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>282000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>656000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>132000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>117000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>414000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5250000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3667000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-367000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4207000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4748000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7736000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9243000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6375000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9162000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8801000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7842000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3996000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7076000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5474000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6218000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3151000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="E23" s="3">
         <v>150000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>249000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3148000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4782000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2388000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5434000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4990000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3911000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1182000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2955000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>928000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2115000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>617000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-395000</v>
+      </c>
+      <c r="E24" s="3">
         <v>457000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-139000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>231000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>706000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1244000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1783000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1617000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2031000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2117000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1501000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>260000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1198000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>772000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>623000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>74000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-307000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-731000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1904000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2999000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>771000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3403000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2873000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2410000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>922000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1757000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>156000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1492000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>543000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-450000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-749000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1821000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2934000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>766000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3349000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2798000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2348000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>886000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>143000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1449000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>497000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,8 +1891,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1841,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>121000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-263000</v>
+      </c>
+      <c r="E32" s="3">
         <v>884000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1351000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>916000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-110000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-101000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-148000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-115000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-180000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-563000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-846000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-282000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-656000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-117000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-414000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-450000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-749000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1821000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2934000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>766000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3349000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2798000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2469000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>143000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1449000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>497000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-450000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-749000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1821000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2934000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>766000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3349000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2798000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2469000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>143000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1449000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>497000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,512 +2387,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31111000</v>
+      </c>
+      <c r="E41" s="3">
         <v>30749000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34217000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18139000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22472000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19692000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20674000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21256000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22468000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26192000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22185000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22242000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25586000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25780000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23270000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23794000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23484000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E42" s="3">
         <v>298000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>122000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>88000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>169000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>114000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>135000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>134000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>222000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>106000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>125000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>84000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>77000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>39000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>44000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19078000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17190000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17529000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19166000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26063000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24228000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25586000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25795000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25823000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28593000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26211000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24645000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25800000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22846000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21482000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22378000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22128000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16873000</v>
+      </c>
+      <c r="E44" s="3">
         <v>13840000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12504000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11641000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20880000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19240000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20042000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>21426000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17988000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21894000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21004000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20802000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19011000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18078000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16449000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17236000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>17655000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5587000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8748000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9599000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15270000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12475000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12633000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5106000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4086000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4809000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8873000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7185000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4393000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4446000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5581000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3440000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3559000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4502000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>72982000</v>
+      </c>
+      <c r="E46" s="3">
         <v>70825000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>73971000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64304000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82059000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>75907000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>71543000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>72697000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>71310000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>85652000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76691000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72196000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>74968000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>72369000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>64718000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>67006000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>67813000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35274000</v>
+      </c>
+      <c r="E47" s="3">
         <v>32271000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>32550000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30751000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34378000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32114000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32309000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31796000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30132000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29491000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29389000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29278000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28310000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25689000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26971000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27258000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25740000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>114836000</v>
+      </c>
+      <c r="E48" s="3">
         <v>116580000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117208000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>130226000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>132642000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>134661000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>145291000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>144625000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>135261000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122661000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124390000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>129002000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>129471000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130651000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130715000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>129817000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>129757000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18573000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18750000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18339000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27247000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27407000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26796000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27789000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28782000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29488000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29126000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29127000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29713000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29906000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30100000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28794000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29622000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29377000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25989000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21824000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21113000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21336000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18708000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16785000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16230000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15381000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15985000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16012000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16029000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15098000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13860000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12680000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11917000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11256000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10629000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>267654000</v>
+      </c>
+      <c r="E54" s="3">
         <v>260250000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>263181000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>273864000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>295194000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>286263000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>293162000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>293281000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>282176000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>282942000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>275626000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>275287000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>276515000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>271489000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>263115000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>264959000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>263316000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36014000</v>
+      </c>
+      <c r="E57" s="3">
         <v>33823000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32134000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34420000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46829000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43203000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44774000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46749000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46265000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47125000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46635000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42995000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44209000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39965000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36642000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37548000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37915000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11292000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12920000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13410000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14473000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12554000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9568000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10771000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13579000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9373000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9175000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10625000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9028000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7739000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8891000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7385000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7360000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6634000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12493000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11334000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11529000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14805000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14212000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12197000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11310000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10944000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12599000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13627000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12271000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11784000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12778000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10710000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10815000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11218000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13805000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59799000</v>
+      </c>
+      <c r="E60" s="3">
         <v>58077000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57073000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63698000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73595000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64968000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66855000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71272000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68237000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69927000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>69531000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>63807000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64726000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>59566000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54842000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56126000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>58354000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>70634000</v>
+      </c>
+      <c r="E61" s="3">
         <v>69171000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71900000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>64017000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>64892000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>65938000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>67161000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>62705000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>56426000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54960000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49733000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>53161000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>55491000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>56893000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>55619000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>54472000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51666000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51653000</v>
+      </c>
+      <c r="E62" s="3">
         <v>50847000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51397000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55669000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55999000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55342000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55523000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55968000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55965000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54635000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54592000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56154000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55894000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54892000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>54193000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55079000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56453000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>196404000</v>
+      </c>
+      <c r="E66" s="3">
         <v>192295000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>194317000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>185578000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>196782000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>188341000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>191677000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>192082000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>182732000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>181454000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>175805000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>175100000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>178024000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>172968000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>166312000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>167319000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>168030000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,13 +3988,16 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3839,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>21000</v>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,13 +4106,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>76034000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -3950,50 +4123,53 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
         <v>102410000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>102690000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>105374000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>105408000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>107393000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>107090000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>104824000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>102600000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>103858000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>102741000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>101791000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>102726000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>104257000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71229000</v>
+      </c>
+      <c r="E76" s="3">
         <v>67955000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68864000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88286000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98391000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>97901000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>101464000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101178000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99423000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101467000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>99800000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100166000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>98470000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>98500000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>96782000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>97619000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>95265000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-450000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-749000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1821000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2934000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>766000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3349000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2798000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2469000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>143000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1449000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>497000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-6340000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3517000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13555000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4157000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3958000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4773000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4588000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4461000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3987000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3728000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3811000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3931000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2814000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4121000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4546000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4103000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2534000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2269000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5204000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3737000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>952000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7603000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6056000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6815000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5296000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6829000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6092000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6306000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3646000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5903000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6024000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4890000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2114000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2428000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2922000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1059000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3132000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14663000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-589000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2245000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>254000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1822000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>631000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E101" s="3">
         <v>268000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-42000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-183000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>119000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-118000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-105000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-56000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-314000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>145000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>29000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>146000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>202000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>167000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-649000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16514000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2780000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-982000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-582000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4007000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-57000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-194000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2510000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-524000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>310000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44789000</v>
+        <v>34544000</v>
       </c>
       <c r="E8" s="3">
+        <v>25714000</v>
+      </c>
+      <c r="F8" s="3">
         <v>44251000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31676000</v>
       </c>
-      <c r="G8" s="3">
-        <v>59650000</v>
-      </c>
       <c r="H8" s="3">
+        <v>30973000</v>
+      </c>
+      <c r="I8" s="3">
         <v>71109000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>68291000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72676000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66321000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75677000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79468000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75439000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68172000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67816000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>60018000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56511000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>55863000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>51007000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39002000</v>
+        <v>22756000</v>
       </c>
       <c r="E9" s="3">
+        <v>20207000</v>
+      </c>
+      <c r="F9" s="3">
         <v>36795000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24082000</v>
       </c>
-      <c r="G9" s="3">
-        <v>55159000</v>
-      </c>
       <c r="H9" s="3">
+        <v>26482000</v>
+      </c>
+      <c r="I9" s="3">
         <v>59602000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>57788000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>61388000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53937000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65311000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67125000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64037000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57232000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>57794000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50260000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48316000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>46663000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44003000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5787000</v>
+        <v>11788000</v>
       </c>
       <c r="E10" s="3">
+        <v>5507000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7456000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7594000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4491000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11507000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10503000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11288000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12384000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10366000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12343000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11402000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10940000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10022000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9758000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8195000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9200000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7004000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>214000</v>
+        <v>99000</v>
       </c>
       <c r="E12" s="3">
+        <v>428000</v>
+      </c>
+      <c r="F12" s="3">
         <v>190000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9674000</v>
       </c>
-      <c r="G12" s="3">
-        <v>202000</v>
-      </c>
       <c r="H12" s="3">
+        <v>404000</v>
+      </c>
+      <c r="I12" s="3">
         <v>266000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>185000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>146000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>367000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>457000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>310000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>164000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>514000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>149000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>80000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>97000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>151000</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,126 +1071,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1449000</v>
+        <v>-721000</v>
       </c>
       <c r="E14" s="3">
+        <v>-1729000</v>
+      </c>
+      <c r="F14" s="3">
         <v>330000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11727000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1154000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3672000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3499000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>908000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>122000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>59000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>633000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>354000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>72000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2321000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>317000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>954000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>704000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>435000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3367000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3426000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3467000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3937000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4059000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4434000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4297000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4588000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4461000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3987000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3728000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3811000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3931000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4045000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3904000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3793000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3842000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3642000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43962000</v>
+        <v>28116000</v>
       </c>
       <c r="E17" s="3">
+        <v>24887000</v>
+      </c>
+      <c r="F17" s="3">
         <v>43217000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51929000</v>
       </c>
-      <c r="G17" s="3">
-        <v>63258000</v>
-      </c>
       <c r="H17" s="3">
+        <v>34581000</v>
+      </c>
+      <c r="I17" s="3">
         <v>70970000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>68417000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69676000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61654000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73469000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74597000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>71295000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64543000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67290000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>57195000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55700000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53713000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>50804000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6428000</v>
+      </c>
+      <c r="E18" s="3">
         <v>827000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1034000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>139000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-126000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4667000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2208000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4871000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4144000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3629000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>526000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2823000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>811000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2150000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>203000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E20" s="3">
         <v>263000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-884000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-916000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>110000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>101000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>148000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>115000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>180000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>563000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>846000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>282000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>656000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>132000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>117000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-35000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>414000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9970000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3667000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-367000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4207000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4748000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7736000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9243000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6375000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9162000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8801000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7842000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3996000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7076000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5474000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6218000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3151000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6542000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1090000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>150000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>249000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3148000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4782000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2388000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5434000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4990000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3911000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1182000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2955000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>928000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2115000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>617000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-395000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>457000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-139000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>231000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>706000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1244000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1783000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1617000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2031000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2117000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1501000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>260000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1198000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>772000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>623000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>74000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1485000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-307000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-731000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1904000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2999000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>771000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3403000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2873000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2410000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>922000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1757000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>156000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1492000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>543000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1357000</v>
+        <v>4666000</v>
       </c>
       <c r="E27" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-450000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-749000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1821000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2934000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>766000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3349000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2798000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2348000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>886000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1769000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>143000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1449000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>497000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,8 +1954,8 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1904,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>121000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-263000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>884000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1351000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>916000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-110000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-101000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-148000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-115000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-180000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-563000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-846000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-282000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-656000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-132000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-117000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>35000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-414000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1357000</v>
+        <v>4666000</v>
       </c>
       <c r="E33" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-450000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-749000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1821000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2934000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>766000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3349000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2798000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2469000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1769000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>143000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1449000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>497000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1357000</v>
+        <v>4666000</v>
       </c>
       <c r="E35" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-450000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-749000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1821000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2934000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>766000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3349000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2798000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2469000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1769000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>143000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1449000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>497000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,539 +2473,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31676000</v>
+      </c>
+      <c r="E41" s="3">
         <v>31111000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30749000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34217000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18139000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22472000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19692000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20674000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21256000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22468000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26192000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22185000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22242000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25586000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25780000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23270000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23794000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23484000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E42" s="3">
         <v>333000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>298000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>122000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>88000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>169000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>114000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>135000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>134000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>222000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>106000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>125000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>84000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>77000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>39000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>44000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20901000</v>
+      </c>
+      <c r="E43" s="3">
         <v>19078000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17190000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17529000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19166000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26063000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24228000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25586000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25795000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25823000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28593000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26211000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24645000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25800000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22846000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21482000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22378000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22128000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20873000</v>
+      </c>
+      <c r="E44" s="3">
         <v>16873000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13840000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12504000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11641000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20880000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19240000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20042000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21426000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17988000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21894000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>21004000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20802000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>19011000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18078000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16449000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>17236000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>17655000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4451000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5587000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8748000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9599000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15270000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12475000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12633000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5106000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4086000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4809000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8873000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7185000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4393000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4446000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5581000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3440000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3559000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4502000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78117000</v>
+      </c>
+      <c r="E46" s="3">
         <v>72982000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>70825000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73971000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>64304000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82059000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>75907000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>71543000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>72697000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71310000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85652000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76691000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>72196000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>74968000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>72369000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>64718000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>67006000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>67813000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36296000</v>
+      </c>
+      <c r="E47" s="3">
         <v>35274000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>32271000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32550000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30751000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34378000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32114000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32309000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31796000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30132000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29491000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29389000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29278000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28310000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25689000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26971000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27258000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25740000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>112927000</v>
+      </c>
+      <c r="E48" s="3">
         <v>114836000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116580000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117208000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>130226000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>132642000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>134661000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>145291000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>144625000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>135261000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>122661000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>124390000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>129002000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>129471000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130651000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>130715000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>129817000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>129757000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18605000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18573000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18750000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18339000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27247000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27407000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>26796000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>27789000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28782000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29488000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29126000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29127000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29713000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29906000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30100000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28794000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29622000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29377000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23980000</v>
+      </c>
+      <c r="E52" s="3">
         <v>25989000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21824000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21113000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21336000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18708000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16785000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16230000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15381000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15985000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16012000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16029000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15098000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13860000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12680000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11917000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11256000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10629000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>269925000</v>
+      </c>
+      <c r="E54" s="3">
         <v>267654000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>260250000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>263181000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>273864000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>295194000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>286263000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>293162000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>293281000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>282176000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>282942000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>275626000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>275287000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>276515000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>271489000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>263115000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>264959000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>263316000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40709000</v>
+      </c>
+      <c r="E57" s="3">
         <v>36014000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33823000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32134000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34420000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46829000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43203000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44774000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46749000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46265000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47125000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46635000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42995000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44209000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39965000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36642000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37548000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37915000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7055000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11292000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12920000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13410000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14473000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12554000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9568000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10771000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13579000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9373000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9175000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10625000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9028000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7739000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8891000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7385000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7360000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6634000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12951000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12493000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11334000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11529000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14805000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14212000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12197000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11310000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10944000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12599000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13627000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12271000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11784000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12778000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10710000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10815000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11218000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13805000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60715000</v>
+      </c>
+      <c r="E60" s="3">
         <v>59799000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>58077000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57073000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>63698000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73595000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64968000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66855000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71272000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68237000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>69927000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>69531000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>63807000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64726000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>59566000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54842000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56126000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>58354000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>68098000</v>
+      </c>
+      <c r="E61" s="3">
         <v>70634000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>69171000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71900000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>64017000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>64892000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>65938000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>67161000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>62705000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56426000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54960000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49733000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>53161000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>55491000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>56893000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>55619000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>54472000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>51666000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50526000</v>
+      </c>
+      <c r="E62" s="3">
         <v>51653000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50847000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51397000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55669000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55999000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55342000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55523000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55968000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55965000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54635000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54592000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56154000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55894000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>54892000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>54193000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>55079000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56453000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>193966000</v>
+      </c>
+      <c r="E66" s="3">
         <v>196404000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>192295000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>194317000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>185578000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>196782000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>188341000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>191677000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>192082000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>182732000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>181454000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>175805000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>175100000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>178024000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>172968000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>166312000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>167319000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>168030000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,13 +4155,16 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4009,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>21000</v>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,13 +4279,16 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>76034000</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -4126,50 +4299,53 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
         <v>102410000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>102690000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>105374000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>105408000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>107393000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>107090000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>104824000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>102600000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>103858000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>102741000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>101791000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>102726000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>104257000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71229000</v>
+        <v>75959000</v>
       </c>
       <c r="E76" s="3">
+        <v>71250000</v>
+      </c>
+      <c r="F76" s="3">
         <v>67955000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68864000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>88286000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98391000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97901000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101464000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101178000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>99423000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101467000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>99800000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100166000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>98470000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>98500000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>96782000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>97619000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>95265000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1357000</v>
+        <v>4666000</v>
       </c>
       <c r="E81" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-450000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-749000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1821000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2934000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>766000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3349000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2798000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2469000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1769000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>143000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1449000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>497000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3428000</v>
+      </c>
+      <c r="E83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3517000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13555000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4157000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3958000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4773000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4588000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4461000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3987000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3728000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3811000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3931000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2814000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4121000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4546000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4103000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2534000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6109000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2269000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5204000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3737000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>952000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7603000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6056000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6815000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5296000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6829000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6092000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6306000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3646000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5903000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6024000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4890000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2114000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2428000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3033000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E94" s="3">
         <v>573000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1064000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5913000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14663000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-589000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2245000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>254000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1822000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>631000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E101" s="3">
         <v>336000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>268000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-42000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-183000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>119000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-118000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-105000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-56000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-314000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>145000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>29000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>146000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>202000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>167000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-649000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E102" s="3">
         <v>46000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16514000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2780000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-982000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-582000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4007000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-57000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2510000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-524000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>310000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36467000</v>
+      </c>
+      <c r="E8" s="3">
         <v>34544000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25714000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44251000</v>
       </c>
-      <c r="G8" s="3">
-        <v>31676000</v>
-      </c>
       <c r="H8" s="3">
+        <v>21262000</v>
+      </c>
+      <c r="I8" s="3">
         <v>30973000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71109000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>68291000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72676000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66321000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75677000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>79468000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>75439000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68172000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67816000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>60018000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56511000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>55863000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>51007000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28080000</v>
+      </c>
+      <c r="E9" s="3">
         <v>22756000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20207000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36795000</v>
       </c>
-      <c r="G9" s="3">
-        <v>24082000</v>
-      </c>
       <c r="H9" s="3">
+        <v>13668000</v>
+      </c>
+      <c r="I9" s="3">
         <v>26482000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59602000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>57788000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61388000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53937000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65311000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>67125000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64037000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>57232000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>57794000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50260000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48316000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>46663000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44003000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8387000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11788000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5507000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7456000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7594000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4491000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11507000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10503000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11288000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12384000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10366000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12343000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11402000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10940000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10022000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9758000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8195000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9200000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7004000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +962,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E12" s="3">
         <v>99000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>428000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>190000</v>
       </c>
-      <c r="G12" s="3">
-        <v>9674000</v>
-      </c>
       <c r="H12" s="3">
+        <v>19348000</v>
+      </c>
+      <c r="I12" s="3">
         <v>404000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>266000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>185000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>146000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>367000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>457000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>310000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>164000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>514000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>149000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>80000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>97000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>151000</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,132 +1090,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-3169000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-721000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1729000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>330000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11727000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1154000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3672000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3499000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>908000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>122000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>59000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>633000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>354000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>72000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2321000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>317000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>954000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>704000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>435000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3631000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3367000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3426000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3467000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3937000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4059000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4434000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4297000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4588000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4461000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3987000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3728000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3811000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3931000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4045000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3904000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3793000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3842000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3642000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31523000</v>
+      </c>
+      <c r="E17" s="3">
         <v>28116000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24887000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43217000</v>
       </c>
-      <c r="G17" s="3">
-        <v>51929000</v>
-      </c>
       <c r="H17" s="3">
+        <v>41515000</v>
+      </c>
+      <c r="I17" s="3">
         <v>34581000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70970000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68417000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69676000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61654000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73469000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74597000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>71295000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64543000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67290000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>57195000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55700000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>53713000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>50804000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4944000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6428000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>827000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1034000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>139000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-126000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3000000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4667000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2208000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4871000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4144000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3629000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>526000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2823000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>811000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2150000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>203000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1399,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E20" s="3">
         <v>114000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>263000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-884000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-916000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>110000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>101000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>148000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>115000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>180000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>563000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>846000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>282000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>656000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>132000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>117000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>414000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8797000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9970000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3667000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-367000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4207000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4748000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7736000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9243000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6375000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9162000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8801000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7842000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3996000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7076000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5474000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6218000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3151000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5138000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6542000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1090000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>150000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>249000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3148000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4782000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2388000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5434000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4990000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3911000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1182000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2955000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>928000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2115000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>617000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1642000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-395000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>457000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-139000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>231000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>706000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1244000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1783000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1617000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2031000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2117000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1501000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>260000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1198000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>772000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>623000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>74000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3354000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4900000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1485000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-307000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-731000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1904000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2999000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>771000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3403000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2873000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2410000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>922000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1757000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>156000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1492000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>543000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4666000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1358000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-450000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-749000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1821000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2934000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>766000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3349000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2798000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2348000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>886000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1769000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>143000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1449000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>497000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,31 +1982,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1957,8 +2017,8 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1967,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>121000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-194000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-114000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-263000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>884000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1351000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>916000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-110000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-101000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-148000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-115000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-180000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-563000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-846000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-282000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-656000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-132000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-117000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-414000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4666000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1358000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-450000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-749000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1821000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2934000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>766000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3349000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2798000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2469000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1769000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>143000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1449000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>497000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4666000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1358000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-450000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-749000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1821000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2934000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>766000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3349000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2798000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2469000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1769000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>143000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1449000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>497000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,566 +2559,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34256000</v>
+      </c>
+      <c r="E41" s="3">
         <v>31676000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31111000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30749000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34217000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18139000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22472000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19692000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20674000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21256000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22468000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26192000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22185000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22242000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25586000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25780000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23270000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23794000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23484000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E42" s="3">
         <v>216000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>333000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>298000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>122000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>88000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>169000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>135000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>134000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>222000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>106000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>114000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>125000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>84000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>77000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>39000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>44000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24331000</v>
+      </c>
+      <c r="E43" s="3">
         <v>20901000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19078000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17190000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17529000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19166000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26063000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24228000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25586000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25795000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25823000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28593000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26211000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24645000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25800000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22846000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21482000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22378000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22128000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22608000</v>
+      </c>
+      <c r="E44" s="3">
         <v>20873000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16873000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13840000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12504000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11641000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20880000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19240000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20042000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21426000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17988000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>21894000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21004000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>20802000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>19011000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18078000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16449000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>17236000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17655000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5394000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4451000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5587000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8748000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9599000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15270000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12475000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12633000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5106000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4086000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4809000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8873000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7185000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4393000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4446000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5581000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3440000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3559000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4502000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86753000</v>
+      </c>
+      <c r="E46" s="3">
         <v>78117000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72982000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>70825000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>73971000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>64304000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>82059000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75907000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>71543000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72697000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>71310000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85652000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>76691000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>72196000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>74968000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>72369000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>64718000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>67006000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>67813000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36897000</v>
+      </c>
+      <c r="E47" s="3">
         <v>36296000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>35274000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32271000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32550000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30751000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34378000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32114000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32309000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31796000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30132000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29491000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29389000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29278000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28310000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25689000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26971000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27258000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25740000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116177000</v>
+      </c>
+      <c r="E48" s="3">
         <v>112927000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114836000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116580000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>117208000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>130226000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>132642000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>134661000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>145291000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>144625000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>135261000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>122661000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>124390000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>129002000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>129471000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>130651000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>130715000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>129817000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>129757000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18734000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18605000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18573000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18750000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18339000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27247000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27407000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>26796000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27789000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28782000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29488000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29126000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29127000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29713000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29906000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30100000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28794000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29622000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29377000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25525000</v>
+      </c>
+      <c r="E52" s="3">
         <v>23980000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25989000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21824000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21113000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21336000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18708000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16785000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16230000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15381000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15985000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16012000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16029000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15098000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13860000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12680000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11917000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11256000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10629000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>284086000</v>
+      </c>
+      <c r="E54" s="3">
         <v>269925000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>267654000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>260250000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>263181000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>273864000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>295194000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>286263000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>293162000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>293281000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>282176000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>282942000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>275626000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>275287000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>276515000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>271489000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>263115000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>264959000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>263316000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45198000</v>
+      </c>
+      <c r="E57" s="3">
         <v>40709000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36014000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33823000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32134000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34420000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46829000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43203000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44774000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46749000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46265000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47125000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46635000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42995000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44209000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39965000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36642000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37548000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37915000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9447000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7055000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11292000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12920000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13410000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14473000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12554000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9568000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10771000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13579000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9373000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9175000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10625000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9028000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7739000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8891000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7385000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7360000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6634000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15925000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12951000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12493000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11334000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11529000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14805000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14212000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12197000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11310000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10944000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12599000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13627000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12271000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11784000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12778000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10710000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10815000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11218000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13805000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70570000</v>
+      </c>
+      <c r="E60" s="3">
         <v>60715000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59799000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>58077000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57073000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63698000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73595000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64968000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66855000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71272000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68237000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>69927000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>69531000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>63807000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64726000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>59566000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>54842000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>56126000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>58354000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>67663000</v>
+      </c>
+      <c r="E61" s="3">
         <v>68098000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>70634000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>69171000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>71900000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>64017000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>64892000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>65938000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>67161000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>62705000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>56426000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54960000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49733000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>53161000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>55491000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>56893000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>55619000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>54472000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>51666000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52621000</v>
+      </c>
+      <c r="E62" s="3">
         <v>50526000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51653000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50847000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51397000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55669000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55999000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55342000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55523000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55968000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55965000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54635000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54592000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56154000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55894000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>54892000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54193000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>55079000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>56453000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>205289000</v>
+      </c>
+      <c r="E66" s="3">
         <v>193966000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>196404000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>192295000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>194317000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>185578000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>196782000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>188341000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>191677000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>192082000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>182732000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>181454000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>175805000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>175100000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>178024000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>172968000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>166312000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>167319000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>168030000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4179,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>21000</v>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,8 +4452,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4302,50 +4475,53 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
         <v>102410000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>102690000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>105374000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>105408000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>107393000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>107090000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>104824000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>102600000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>103858000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>102741000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>101791000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>102726000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>104257000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78797000</v>
+      </c>
+      <c r="E76" s="3">
         <v>75959000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71250000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67955000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68864000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>88286000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>98391000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>97901000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101464000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101178000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>99423000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>101467000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>99800000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100166000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>98470000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>98500000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>96782000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>97619000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>95265000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4666000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1358000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-450000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-749000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1821000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2934000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>766000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3349000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2798000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2469000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1769000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>143000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1449000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>497000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3659000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3428000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3517000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13555000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4157000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3958000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4773000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4588000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4461000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3987000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3728000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3811000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3931000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2814000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4121000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4546000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4103000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2534000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5411000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6109000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2269000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5204000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3737000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>952000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7603000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6056000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6815000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5296000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6829000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6092000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6306000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3646000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5903000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6024000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4890000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2114000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2428000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2435000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2232000</v>
+      </c>
+      <c r="E94" s="3">
         <v>427000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>573000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1062000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14663000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-589000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2245000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>254000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1822000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>631000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-58000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>336000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>268000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-42000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-183000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>119000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-118000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-105000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-56000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-314000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>145000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>29000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>146000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>202000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>167000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-649000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2580000</v>
+      </c>
+      <c r="E102" s="3">
         <v>565000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16514000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2780000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-982000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-582000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4007000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-194000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2510000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-524000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>310000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36174000</v>
+      </c>
+      <c r="E8" s="3">
         <v>36467000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34544000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25714000</v>
       </c>
-      <c r="G8" s="3">
-        <v>44251000</v>
-      </c>
       <c r="H8" s="3">
+        <v>26312000</v>
+      </c>
+      <c r="I8" s="3">
         <v>21262000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30973000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>71109000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68291000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>72676000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66321000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75677000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>79468000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>75439000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68172000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67816000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>60018000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56511000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>55863000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>51007000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30300000</v>
+      </c>
+      <c r="E9" s="3">
         <v>28080000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22756000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20207000</v>
       </c>
-      <c r="G9" s="3">
-        <v>36795000</v>
-      </c>
       <c r="H9" s="3">
+        <v>50501000</v>
+      </c>
+      <c r="I9" s="3">
         <v>13668000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26482000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59602000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57788000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61388000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53937000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65311000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>67125000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64037000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>57232000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>57794000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50260000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48316000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>46663000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>44003000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5874000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8387000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11788000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5507000</v>
       </c>
-      <c r="G10" s="3">
-        <v>7456000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-24189000</v>
+      </c>
+      <c r="I10" s="3">
         <v>7594000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4491000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11507000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10503000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11288000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12384000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10366000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12343000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11402000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10940000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10022000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9758000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8195000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9200000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7004000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,73 +975,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E12" s="3">
         <v>107000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>99000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>428000</v>
       </c>
-      <c r="G12" s="3">
-        <v>190000</v>
-      </c>
       <c r="H12" s="3">
+        <v>380000</v>
+      </c>
+      <c r="I12" s="3">
         <v>19348000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>404000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>266000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>185000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>146000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>367000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>457000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>310000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>164000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>514000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>149000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>80000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>97000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>151000</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,138 +1109,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3169000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-721000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1729000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>330000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11727000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1154000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3672000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3499000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>908000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>122000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>59000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>633000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>354000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>72000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2321000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>317000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>954000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>704000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>435000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3944000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3631000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3367000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3426000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3467000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3937000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4059000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4434000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4297000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4588000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4461000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3987000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3728000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3811000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3931000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4045000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3904000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3793000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3842000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3642000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37439000</v>
+      </c>
+      <c r="E17" s="3">
         <v>31523000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28116000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24887000</v>
       </c>
-      <c r="G17" s="3">
-        <v>43217000</v>
-      </c>
       <c r="H17" s="3">
+        <v>25278000</v>
+      </c>
+      <c r="I17" s="3">
         <v>41515000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34581000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70970000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68417000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69676000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61654000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>73469000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>74597000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>71295000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64543000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67290000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>57195000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>55700000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>53713000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>50804000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1265000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4944000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6428000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>827000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1034000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>139000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-126000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3000000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4667000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2208000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4871000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4144000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3629000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>526000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2823000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>811000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2150000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>203000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,138 +1432,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E20" s="3">
         <v>194000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>114000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>263000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-884000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-916000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>110000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>101000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>148000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>115000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>180000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>563000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>846000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>282000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>656000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>132000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>117000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>414000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3481000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8797000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9970000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3667000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-367000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4207000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4748000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7736000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9243000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6375000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9162000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8801000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7842000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3996000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7076000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5474000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6218000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3151000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-495000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5138000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6542000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1090000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>150000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>249000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3148000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4782000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2388000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5434000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4990000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3911000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1182000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2955000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>928000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2115000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>617000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1784000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1642000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-395000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>457000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-139000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>231000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>706000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1244000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1783000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1617000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2031000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2117000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1501000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>260000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1198000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>772000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>623000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>74000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2345000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3354000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4900000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1485000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-307000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-731000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1904000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2999000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>771000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3403000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2873000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2410000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>922000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1757000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>156000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1492000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>543000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2545000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3116000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4666000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1358000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-450000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-749000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1821000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2934000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>766000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3349000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2798000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2348000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>886000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1769000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>143000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1449000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>497000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2011,8 +2071,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2020,8 +2080,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2030,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>121000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-770000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-194000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-114000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-263000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>884000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1351000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>916000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-110000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-101000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-148000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-115000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-180000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-563000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-846000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-282000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-656000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-132000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-117000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-414000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2545000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3116000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4666000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1358000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-450000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-749000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1821000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2934000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>766000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3349000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2798000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2469000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1769000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>143000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1449000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>497000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2545000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3116000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4666000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1358000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-450000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-749000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1821000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2934000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>766000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3349000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2798000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2469000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1769000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>143000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1449000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>497000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,593 +2645,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30694000</v>
+      </c>
+      <c r="E41" s="3">
         <v>34256000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31676000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31111000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30749000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34217000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18139000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22472000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19692000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20674000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21256000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22468000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26192000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22185000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22242000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25586000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25780000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23270000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23794000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23484000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E42" s="3">
         <v>164000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>216000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>333000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>298000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>122000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>169000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>135000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>134000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>222000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>100000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>106000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>114000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>125000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>84000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>77000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>39000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>44000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26299000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24331000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20901000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19078000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17190000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17529000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19166000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26063000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24228000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25586000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25795000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25823000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28593000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26211000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24645000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25800000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22846000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21482000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22378000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22128000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25232000</v>
+      </c>
+      <c r="E44" s="3">
         <v>22608000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20873000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16873000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13840000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12504000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11641000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20880000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19240000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20042000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21426000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17988000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21894000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21004000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20802000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>19011000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18078000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16449000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17236000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>17655000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8060000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5394000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4451000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5587000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8748000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9599000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15270000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12475000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12633000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5106000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4086000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4809000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8873000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7185000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4393000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4446000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5581000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3440000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3559000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4502000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90476000</v>
+      </c>
+      <c r="E46" s="3">
         <v>86753000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78117000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>72982000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70825000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>73971000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>64304000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>82059000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75907000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71543000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72697000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>71310000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>85652000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>76691000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>72196000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>74968000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>72369000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>64718000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>67006000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>67813000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38319000</v>
+      </c>
+      <c r="E47" s="3">
         <v>36897000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36296000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>35274000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32271000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32550000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30751000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34378000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32114000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32309000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31796000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30132000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29491000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29389000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29278000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28310000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25689000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>26971000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27258000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25740000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>114458000</v>
+      </c>
+      <c r="E48" s="3">
         <v>116177000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>112927000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>114836000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116580000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117208000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>130226000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>132642000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>134661000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>145291000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>144625000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>135261000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>122661000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>124390000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>129002000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>129471000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>130651000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>130715000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>129817000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>129757000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18689000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18734000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18605000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18573000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18750000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18339000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27247000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>27407000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26796000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27789000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28782000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29488000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29126000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29127000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29713000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29906000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30100000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28794000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29622000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29377000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24594000</v>
+      </c>
+      <c r="E52" s="3">
         <v>25525000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23980000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25989000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21824000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21113000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21336000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18708000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16785000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16230000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15381000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15985000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16012000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16029000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15098000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13860000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12680000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11917000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11256000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10629000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286536000</v>
+      </c>
+      <c r="E54" s="3">
         <v>284086000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>269925000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>267654000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>260250000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>263181000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>273864000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>295194000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>286263000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>293162000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>293281000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>282176000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>282942000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>275626000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>275287000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>276515000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>271489000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>263115000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>264959000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>263316000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49406000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45198000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40709000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36014000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33823000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32134000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34420000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46829000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43203000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44774000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46749000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46265000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47125000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46635000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42995000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44209000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39965000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36642000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37548000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37915000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5455000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9447000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7055000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11292000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12920000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13410000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14473000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12554000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9568000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10771000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13579000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9373000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9175000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10625000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9028000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7739000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8891000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7385000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7360000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6634000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23251000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15925000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12951000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12493000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11334000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11529000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14805000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14212000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12197000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11310000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10944000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12599000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13627000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12271000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11784000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12778000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10710000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10815000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11218000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13805000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78112000</v>
+      </c>
+      <c r="E60" s="3">
         <v>70570000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60715000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59799000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>58077000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57073000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63698000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>73595000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64968000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66855000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71272000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68237000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>69927000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>69531000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>63807000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>64726000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>59566000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>54842000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56126000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>58354000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>66387000</v>
+      </c>
+      <c r="E61" s="3">
         <v>67663000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>68098000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>70634000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>69171000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>71900000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>64017000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>64892000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>65938000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67161000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>62705000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>56426000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54960000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49733000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>53161000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>55491000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>56893000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>55619000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>54472000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>51666000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52771000</v>
+      </c>
+      <c r="E62" s="3">
         <v>52621000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50526000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51653000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50847000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>51397000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55669000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55999000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55342000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55523000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55968000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55965000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54635000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54592000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56154000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55894000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54892000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>54193000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55079000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>56453000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212061000</v>
+      </c>
+      <c r="E66" s="3">
         <v>205289000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>193966000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>196404000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>192295000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>194317000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>185578000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>196782000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>188341000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>191677000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>192082000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>182732000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>181454000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>175805000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>175100000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>178024000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>172968000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>166312000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>167319000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>168030000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4349,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>21000</v>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,8 +4625,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,50 +4651,53 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>102410000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>102690000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>105374000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>105408000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>107393000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>107090000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>104824000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>102600000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>103858000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>102741000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>101791000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>102726000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>104257000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74475000</v>
+      </c>
+      <c r="E76" s="3">
         <v>78797000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75959000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71250000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67955000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68864000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88286000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>98391000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97901000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101464000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101178000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>99423000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>101467000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>99800000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100166000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>98470000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>98500000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>96782000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>97619000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>95265000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2545000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3116000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4666000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1358000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-450000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-749000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1821000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2934000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>766000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3349000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2798000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2469000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1769000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>143000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1449000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>497000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3976000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3659000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3428000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3517000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13555000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4157000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3958000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4773000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4588000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4461000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3987000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3728000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3811000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3931000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2814000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4121000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4546000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4103000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2534000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5976000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5411000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6109000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2269000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5204000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3737000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>952000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7603000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6056000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6815000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5296000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6829000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6092000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6306000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3646000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5903000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6024000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4890000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2114000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2428000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2647000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2557000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2232000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>427000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>573000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1101000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6804000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-623000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14663000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-589000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2245000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>254000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1822000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>631000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E101" s="3">
         <v>24000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-58000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>336000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>268000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-42000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-183000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>119000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-118000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>32000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-105000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-56000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>145000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>29000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>146000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>202000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>167000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-649000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3562000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2580000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>565000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16514000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2780000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-982000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-582000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4007000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-194000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2510000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-524000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>310000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,317 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49258000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50554000</v>
+      </c>
+      <c r="F8" s="3">
         <v>36174000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>36467000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>34544000</v>
       </c>
-      <c r="G8" s="3">
-        <v>25714000</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>27397000</v>
+      </c>
+      <c r="J8" s="3">
         <v>26312000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21262000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30973000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>71109000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>68291000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>72676000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>66321000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>75677000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>79468000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>75439000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>68172000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>67816000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>60018000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>56511000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>55863000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>51007000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35269000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>38868000</v>
+      </c>
+      <c r="F9" s="3">
         <v>30300000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>28080000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22756000</v>
       </c>
-      <c r="G9" s="3">
-        <v>20207000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>35338000</v>
+      </c>
+      <c r="J9" s="3">
         <v>50501000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>13668000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>26482000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>59602000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>57788000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>61388000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>53937000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>65311000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>67125000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>64037000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>57232000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>57794000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>50260000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>48316000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>46663000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>44003000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13989000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11686000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5874000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8387000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>11788000</v>
       </c>
-      <c r="G10" s="3">
-        <v>5507000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>-7941000</v>
+      </c>
+      <c r="J10" s="3">
         <v>-24189000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7594000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4491000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11507000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10503000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11288000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12384000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10366000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>12343000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11402000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>10940000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>10022000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>9758000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>8195000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>9200000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>7004000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,76 +1000,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F12" s="3">
         <v>116000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>107000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>99000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>428000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>380000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>19348000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>404000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>266000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>185000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>146000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>367000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>457000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>310000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>164000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>514000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>149000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>80000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>97000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>151000</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,144 +1144,162 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25532000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>961000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-3169000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-721000</v>
       </c>
-      <c r="G14" s="3">
-        <v>-1729000</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>-1449000</v>
+      </c>
+      <c r="J14" s="3">
         <v>330000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>11727000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1154000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3672000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3499000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>908000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>122000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>59000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>633000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>354000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>72000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2321000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>317000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>954000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>704000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>435000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3625000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3863000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3944000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3631000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3367000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3426000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3467000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3937000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4059000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4434000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4297000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4588000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4461000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3987000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>3728000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3811000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>3931000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>4045000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>3904000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>3793000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>3842000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>3642000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1321,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67598000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>47159000</v>
+      </c>
+      <c r="F17" s="3">
         <v>37439000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>31523000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>28116000</v>
       </c>
-      <c r="G17" s="3">
-        <v>24887000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>26570000</v>
+      </c>
+      <c r="J17" s="3">
         <v>25278000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>41515000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34581000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>70970000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>68417000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>69676000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>61654000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>73469000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>74597000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>71295000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>64543000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>67290000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>57195000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>55700000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>53713000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>50804000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18340000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3395000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1265000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4944000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6428000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>827000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1034000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>139000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-126000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3000000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4667000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2208000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4871000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4144000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3629000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>526000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2823000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>811000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2150000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>203000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,144 +1497,158 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>647000</v>
+      </c>
+      <c r="F20" s="3">
         <v>770000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>194000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>114000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>263000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-884000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-916000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>110000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>101000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>148000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>115000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>180000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>563000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>846000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>282000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>656000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>132000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>117000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-35000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>414000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13866000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7784000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3481000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8797000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9970000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3667000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-367000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4207000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4748000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>7736000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9243000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6375000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9162000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>8801000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>7842000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3996000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>7076000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>5474000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>6218000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3151000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1715,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17540000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4042000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-495000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5138000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6542000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1090000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>150000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>249000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-25000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3148000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4782000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2388000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5434000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4990000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3911000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1182000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2955000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>928000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2115000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>617000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2530000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1850000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1784000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1642000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-395000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>457000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-139000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>231000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>706000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1244000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1783000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1617000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2031000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2117000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1501000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>260000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1198000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>772000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>623000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>74000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1937,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20070000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2578000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2345000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3354000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4900000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1485000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-307000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>18000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-731000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1904000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2999000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>771000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3403000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2873000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2410000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>922000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1757000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>156000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1492000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>543000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20384000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2326000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2545000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3116000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4666000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1358000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-450000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-749000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1821000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2934000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>766000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3349000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2798000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2348000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>886000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1769000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>143000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1449000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>497000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2159,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2074,35 +2194,35 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>121000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2113,8 +2233,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2307,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2381,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-647000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-770000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-194000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-114000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-263000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>884000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1351000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>916000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-110000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-101000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-148000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-115000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-180000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-563000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-846000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-282000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-656000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-132000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-117000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>35000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-414000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20384000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2326000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2545000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3116000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4666000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1358000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-450000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-749000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1821000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2934000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>766000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3349000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2798000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2469000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>27000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1769000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>143000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1449000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>497000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2603,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20384000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2326000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2545000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3116000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4666000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1358000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-450000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-749000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1821000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2934000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>766000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3349000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2798000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2469000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>27000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1769000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>143000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1449000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>497000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2788,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,620 +2816,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34414000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30681000</v>
+      </c>
+      <c r="F41" s="3">
         <v>30694000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>34256000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>31676000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>31111000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30749000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>34217000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>18139000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>22472000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19692000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20674000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>21256000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>22468000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>26192000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>22185000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>22242000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>25586000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>25780000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>23270000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>23794000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>23484000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>280000</v>
+      </c>
+      <c r="F42" s="3">
         <v>191000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>164000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>216000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>333000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>298000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>122000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>88000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>169000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>114000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>135000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>134000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>222000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>100000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>106000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>114000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>125000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>84000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>77000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>39000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>44000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36218000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>28036000</v>
+      </c>
+      <c r="F43" s="3">
         <v>26299000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>24331000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>20901000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>19078000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>17190000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>17529000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>19166000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>26063000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>24228000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>25586000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>25795000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>25823000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>28593000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>26211000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>24645000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>25800000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>22846000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>21482000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>22378000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>22128000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30109000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>23711000</v>
+      </c>
+      <c r="F44" s="3">
         <v>25232000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>22608000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>20873000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>16873000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>13840000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>12504000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11641000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>20880000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>19240000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>20042000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>21426000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>17988000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>21894000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>21004000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>20802000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>19011000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>18078000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>16449000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>17236000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>17655000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19287000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9882000</v>
+      </c>
+      <c r="F45" s="3">
         <v>8060000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5394000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4451000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5587000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8748000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9599000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15270000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12475000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>12633000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5106000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4086000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4809000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8873000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7185000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>4393000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4446000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>5581000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>3440000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>3559000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>4502000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>120131000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>92590000</v>
+      </c>
+      <c r="F46" s="3">
         <v>90476000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>86753000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>78117000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>72982000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>70825000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>73971000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>64304000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>82059000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>75907000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>71543000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>72697000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>71310000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>85652000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>76691000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>72196000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>74968000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>72369000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>64718000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>67006000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>67813000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20200000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>37142000</v>
+      </c>
+      <c r="F47" s="3">
         <v>38319000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>36897000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>36296000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>35274000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>32271000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>32550000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>30751000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>34378000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>32114000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>32309000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>31796000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>30132000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>29491000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>29389000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>29278000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>28310000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>25689000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>26971000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>27258000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>25740000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109884000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>112902000</v>
+      </c>
+      <c r="F48" s="3">
         <v>114458000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>116177000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>112927000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>114836000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>116580000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>117208000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>130226000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>132642000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>134661000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>145291000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>144625000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>135261000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>122661000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>124390000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>129002000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>129471000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>130651000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>130715000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>129817000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>129757000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18235000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>18824000</v>
+      </c>
+      <c r="F49" s="3">
         <v>18689000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>18734000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>18605000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>18573000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>18750000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>18339000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>27247000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>27407000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>26796000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>27789000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>28782000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>29488000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>29126000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>29127000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>29713000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>29906000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>30100000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>28794000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>29622000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>29377000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3552,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3626,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27062000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25814000</v>
+      </c>
+      <c r="F52" s="3">
         <v>24594000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>25525000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>23980000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>25989000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>21824000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>21113000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>21336000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>18708000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>16785000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>16230000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>15381000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>15985000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>16012000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>16029000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>15098000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>13860000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>12680000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>11917000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>11256000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>10629000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3774,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>295512000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>287272000</v>
+      </c>
+      <c r="F54" s="3">
         <v>286536000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>284086000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>269925000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>267654000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>260250000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>263181000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>273864000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>295194000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>286263000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>293162000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>293281000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>282176000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>282942000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>275626000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>275287000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>276515000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>271489000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>263115000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>264959000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>263316000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3880,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3908,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61195000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>52611000</v>
+      </c>
+      <c r="F57" s="3">
         <v>49406000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>45198000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>40709000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>36014000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>33823000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>32134000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>34420000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>46829000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>43203000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>44774000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>46749000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>46265000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>47125000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>46635000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>42995000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>44209000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>39965000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>36642000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>37548000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>37915000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6949000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7304000</v>
+      </c>
+      <c r="F58" s="3">
         <v>5455000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9447000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7055000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>11292000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>12920000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>13410000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14473000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>12554000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9568000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10771000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>13579000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9373000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>9175000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>10625000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>9028000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7739000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>8891000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>7385000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>7360000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>6634000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33041000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20372000</v>
+      </c>
+      <c r="F59" s="3">
         <v>23251000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15925000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12951000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12493000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11334000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11529000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>14805000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14212000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12197000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11310000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>10944000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12599000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13627000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>12271000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11784000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>12778000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>10710000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>10815000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>11218000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>13805000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101185000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>80287000</v>
+      </c>
+      <c r="F60" s="3">
         <v>78112000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>70570000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>60715000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>59799000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>58077000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>57073000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>63698000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>73595000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>64968000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>66855000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>71272000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>68237000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>69927000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>69531000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>63807000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>64726000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>59566000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>54842000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>56126000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>58354000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>62123000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>62483000</v>
+      </c>
+      <c r="F61" s="3">
         <v>66387000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>67663000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>68098000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>70634000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>69171000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>71900000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>64017000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>64892000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>65938000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>67161000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>62705000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>56426000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>54960000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>49733000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>53161000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>55491000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>56893000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>55619000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>54472000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>51666000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53685000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>54063000</v>
+      </c>
+      <c r="F62" s="3">
         <v>52771000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>52621000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>50526000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>51653000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>50847000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>51397000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>55669000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>55999000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>55342000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>55523000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>55968000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>55965000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>54635000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>54592000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>56154000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>55894000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>54892000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>54193000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>55079000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>56453000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4422,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4496,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4570,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>232213000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>211809000</v>
+      </c>
+      <c r="F66" s="3">
         <v>212061000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>205289000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>193966000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>196404000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>192295000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>194317000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>185578000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>196782000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>188341000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>191677000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>192082000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>182732000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>181454000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>175805000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>175100000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>178024000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>172968000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>166312000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>167319000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>168030000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4676,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4746,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4820,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4519,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>21000</v>
@@ -4560,8 +4894,14 @@
       <c r="X70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4968,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>102410000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>102690000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>105374000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>105408000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>107393000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>107090000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>104824000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>102600000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>103858000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>102741000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>101791000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>102726000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>104257000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +5116,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5190,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5264,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63299000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75463000</v>
+      </c>
+      <c r="F76" s="3">
         <v>74475000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>78797000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>75959000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>71250000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>67955000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>68864000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>88286000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>98391000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>97901000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>101464000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>101178000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>99423000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>101467000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>99800000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100166000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>98470000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>98500000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>96782000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>97619000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>95265000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5412,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20384000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2326000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2545000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3116000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4666000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1358000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-450000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-749000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1821000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2934000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>766000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3349000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2798000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2469000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>27000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1769000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>143000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1449000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>497000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5597,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3674000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3742000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3976000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3659000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3428000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3517000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13555000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4157000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3958000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4773000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4588000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4461000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3987000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3728000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>3811000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>3931000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2814000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>4121000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>4546000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>4103000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2534000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5741,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5815,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5889,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5963,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +6037,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8210000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6116000</v>
+      </c>
+      <c r="F89" s="3">
         <v>5976000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5411000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6109000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2269000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5204000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3737000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>952000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7603000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>6056000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6815000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5296000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6829000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6092000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>6306000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3646000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>5903000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6024000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>4890000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2114000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2428000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +6143,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2602000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2772000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2647000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6287,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6361,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1883000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2557000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2232000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>427000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>573000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6467,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1068000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1077000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1101000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6611,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6685,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6759,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2469000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4739000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6804000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-623000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>14663000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-589000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2245000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>254000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1822000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>631000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-177000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>24000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-58000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>336000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>268000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-42000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-183000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>119000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-118000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-105000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-314000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>145000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>29000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>146000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>202000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>167000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-649000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3733000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3562000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2580000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>565000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>46000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16514000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2780000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-982000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-582000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4007000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-57000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-194000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2510000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-524000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>310000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>67866000</v>
+      </c>
+      <c r="E8" s="3">
         <v>49258000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50554000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36174000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36467000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34544000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27397000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26312000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21262000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30973000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71109000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68291000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>72676000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>66321000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>75677000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>79468000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>75439000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>68172000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>67816000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>60018000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>56511000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>55863000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>51007000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47345000</v>
+      </c>
+      <c r="E9" s="3">
         <v>35269000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38868000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30300000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28080000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22756000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35338000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50501000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13668000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26482000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59602000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57788000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61388000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53937000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>65311000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>67125000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>64037000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>57232000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>57794000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50260000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>48316000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>46663000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>44003000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>20521000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13989000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11686000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5874000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8387000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11788000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-7941000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-24189000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7594000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4491000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11507000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10503000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11288000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12384000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10366000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12343000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11402000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10940000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10022000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9758000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8195000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>9200000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7004000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,82 +1014,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E12" s="3">
         <v>92000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>102000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>116000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>107000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>99000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>428000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>380000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19348000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>404000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>266000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>185000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>146000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>367000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>457000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>310000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>164000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>514000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>149000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>80000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>97000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>151000</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,156 +1166,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-843000</v>
+      </c>
+      <c r="E14" s="3">
         <v>25532000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>961000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3169000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-721000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1449000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>330000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11727000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1154000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3672000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3499000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>908000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>122000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>59000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>633000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>354000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>72000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2321000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>317000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>954000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>704000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>435000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3512000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3625000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3863000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3944000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3631000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3367000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3426000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3467000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3937000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4059000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4434000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4297000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4588000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4461000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3987000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3728000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3811000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3931000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4045000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3904000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3793000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3842000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3642000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53595000</v>
+      </c>
+      <c r="E17" s="3">
         <v>67598000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47159000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37439000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31523000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28116000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26570000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25278000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41515000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34581000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70970000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68417000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>69676000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61654000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>73469000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>74597000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>71295000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64543000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67290000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>57195000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>55700000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>53713000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>50804000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14271000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18340000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3395000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1265000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4944000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6428000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>827000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1034000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>139000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-126000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3000000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4667000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2208000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4871000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4144000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3629000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>526000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2823000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>811000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2150000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>203000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,156 +1531,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E20" s="3">
         <v>800000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>647000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>770000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>194000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>114000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>263000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-884000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-916000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>110000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>101000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>148000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>115000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>180000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>563000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>846000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>282000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>656000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>132000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>117000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>414000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17654000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13866000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7784000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3481000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8797000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9970000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3667000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-367000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4207000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4748000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7736000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9243000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6375000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9162000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8801000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7842000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3996000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7076000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5474000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6218000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3151000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,156 +1760,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14063000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17540000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4042000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-495000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5138000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6542000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1090000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>150000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>249000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3148000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4782000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2388000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5434000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4990000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3911000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1182000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2955000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>928000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2115000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>617000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4527000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2530000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1464000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1850000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1784000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1642000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-395000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>457000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-139000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>231000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>706000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1244000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1783000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1617000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2031000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2117000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1501000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>260000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1198000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>772000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>623000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>74000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9536000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20070000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2578000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2345000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3354000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4900000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1485000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-307000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-731000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1904000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2999000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>771000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3403000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2873000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2410000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>922000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1757000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>156000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1492000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>543000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9257000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20384000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2326000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2545000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3116000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4666000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1358000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-450000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-749000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1821000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2934000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>766000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3349000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2798000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2348000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>886000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1769000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>143000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1449000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>497000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2200,8 +2260,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2209,8 +2269,8 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2219,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>121000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-647000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-770000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-194000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-114000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-263000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>884000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1351000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>916000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-110000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-101000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-148000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-180000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-563000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-846000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-282000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-656000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-132000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-117000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-414000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9257000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20384000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2326000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2545000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3116000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4666000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1358000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-450000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-749000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1821000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2934000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>766000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3349000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2798000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2469000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1769000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>143000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1449000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>497000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9257000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20384000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2326000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2545000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3116000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4666000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1358000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-450000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-749000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1821000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2934000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>766000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3349000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2798000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2469000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1769000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>143000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1449000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>497000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,674 +2903,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33108000</v>
+      </c>
+      <c r="E41" s="3">
         <v>34414000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30681000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30694000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34256000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31676000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31111000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30749000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34217000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18139000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22472000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19692000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20674000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21256000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22468000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26192000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22185000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22242000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25586000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25780000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23270000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>23794000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23484000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E42" s="3">
         <v>103000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>280000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>191000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>164000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>216000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>333000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>298000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>122000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>169000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>135000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>134000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>222000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>106000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>114000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>125000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>84000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>77000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>39000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>44000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39686000</v>
+      </c>
+      <c r="E43" s="3">
         <v>36218000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28036000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26299000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24331000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20901000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19078000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17190000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17529000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19166000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26063000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24228000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25586000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25795000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25823000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28593000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26211000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24645000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25800000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22846000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21482000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>22378000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>22128000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>34257000</v>
+      </c>
+      <c r="E44" s="3">
         <v>30109000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23711000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>25232000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22608000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20873000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16873000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13840000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12504000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11641000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20880000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>19240000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20042000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21426000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17988000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>21894000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>21004000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>20802000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>19011000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18078000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16449000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>17236000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>17655000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19619000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19287000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9882000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8060000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5394000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4451000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5587000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8748000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9599000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15270000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12475000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12633000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5106000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4086000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4809000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8873000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7185000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4393000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4446000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5581000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3440000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3559000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4502000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>126800000</v>
+      </c>
+      <c r="E46" s="3">
         <v>120131000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>92590000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>90476000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>86753000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78117000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72982000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>70825000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73971000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64304000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>82059000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75907000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>71543000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>72697000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>71310000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85652000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>76691000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>72196000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>74968000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>72369000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>64718000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>67006000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>67813000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22266000</v>
+      </c>
+      <c r="E47" s="3">
         <v>20200000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37142000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>38319000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36897000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36296000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>35274000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32271000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32550000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30751000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34378000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32114000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32309000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31796000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30132000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29491000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29389000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29278000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28310000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25689000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>26971000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27258000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>25740000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>107151000</v>
+      </c>
+      <c r="E48" s="3">
         <v>109884000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>112902000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>114458000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116177000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>112927000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>114836000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>116580000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>117208000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>130226000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>132642000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134661000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>145291000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>144625000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>135261000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>122661000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>124390000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>129002000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>129471000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>130651000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>130715000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>129817000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>129757000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17895000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18235000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18824000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18689000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18734000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18605000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18573000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18750000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18339000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27247000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27407000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26796000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27789000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28782000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29488000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29126000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29127000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29713000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29906000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30100000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28794000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29622000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29377000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25021000</v>
+      </c>
+      <c r="E52" s="3">
         <v>27062000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25814000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24594000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25525000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23980000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25989000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21824000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21113000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21336000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18708000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16785000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16230000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15381000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15985000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16012000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16029000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15098000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13860000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12680000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11917000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11256000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10629000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>299133000</v>
+      </c>
+      <c r="E54" s="3">
         <v>295512000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>287272000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>286536000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>284086000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>269925000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>267654000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>260250000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>263181000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>273864000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>295194000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>286263000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>293162000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>293281000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>282176000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>282942000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>275626000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>275287000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>276515000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>271489000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>263115000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>264959000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>263316000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64015000</v>
+      </c>
+      <c r="E57" s="3">
         <v>61195000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52611000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49406000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45198000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40709000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36014000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33823000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32134000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34420000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46829000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43203000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44774000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46749000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46265000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47125000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46635000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42995000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>44209000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39965000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>36642000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>37548000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>37915000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8214000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6949000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7304000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5455000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9447000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7055000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11292000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12920000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13410000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14473000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12554000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9568000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10771000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13579000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9373000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9175000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10625000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9028000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7739000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8891000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7385000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7360000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6634000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37278000</v>
+      </c>
+      <c r="E59" s="3">
         <v>33041000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20372000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23251000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15925000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12951000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12493000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11334000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11529000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14805000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14212000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12197000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11310000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10944000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12599000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13627000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12271000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11784000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12778000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10710000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10815000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11218000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13805000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109507000</v>
+      </c>
+      <c r="E60" s="3">
         <v>101185000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>80287000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78112000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70570000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60715000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59799000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>58077000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57073000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63698000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73595000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64968000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>66855000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71272000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68237000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>69927000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>69531000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>63807000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>64726000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>59566000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>54842000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>56126000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>58354000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52708000</v>
+      </c>
+      <c r="E61" s="3">
         <v>62123000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>62483000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>66387000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>67663000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>68098000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>70634000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>69171000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>71900000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>64017000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>64892000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>65938000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>67161000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>62705000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>56426000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>54960000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>49733000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>53161000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>55491000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>56893000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>55619000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>54472000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>51666000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55355000</v>
+      </c>
+      <c r="E62" s="3">
         <v>53685000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54063000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52771000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52621000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50526000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>51653000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50847000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>51397000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55669000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55999000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55342000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55523000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55968000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55965000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>54635000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54592000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56154000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55894000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>54892000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>54193000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>55079000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>56453000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>232524000</v>
+      </c>
+      <c r="E66" s="3">
         <v>232213000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>211809000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>212061000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>205289000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>193966000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>196404000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>192295000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>194317000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>185578000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>196782000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>188341000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>191677000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>192082000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>182732000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>181454000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>175805000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>175100000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>178024000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>172968000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>166312000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>167319000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>168030000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4859,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>21000</v>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,8 +5144,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5000,56 +5173,59 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>102410000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>102690000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>105374000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>105408000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>107393000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>107090000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>104824000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>102600000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>103858000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>102741000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>101791000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>102726000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>104257000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66609000</v>
+      </c>
+      <c r="E76" s="3">
         <v>63299000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75463000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74475000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78797000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75959000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71250000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>67955000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68864000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88286000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>98391000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>97901000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>101464000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>101178000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>99423000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>101467000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>99800000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100166000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>98470000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>98500000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>96782000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>97619000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>95265000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9257000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20384000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2326000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2545000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3116000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4666000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1358000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-450000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-749000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1821000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2934000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>766000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3349000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2798000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2469000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1769000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>143000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1449000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>497000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3674000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3742000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3976000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3659000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3428000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3517000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13555000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4157000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3958000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4773000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4588000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4461000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3987000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3728000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3811000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3931000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2814000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4121000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4546000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4103000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2534000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10863000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8210000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6116000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5976000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5411000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6109000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2269000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5204000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3737000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>952000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7603000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6056000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6815000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5296000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6829000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6092000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6306000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3646000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5903000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6024000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4890000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2114000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2428000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2666000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2602000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2772000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2647000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2509000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1883000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1332000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2557000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2232000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>427000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>573000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1062000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1068000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1101000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9246000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2469000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4739000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6804000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-623000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14663000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-589000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2245000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>254000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1822000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>631000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-125000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-58000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-177000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>24000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-58000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>336000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>268000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-42000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-183000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>119000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-118000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>32000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-105000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-56000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-314000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>145000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>29000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>146000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>202000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>167000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-649000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1306000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3733000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3562000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2580000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>565000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16514000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2780000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-982000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-582000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4007000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-57000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-194000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2510000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-524000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>310000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55011000</v>
+      </c>
+      <c r="E8" s="3">
         <v>67866000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49258000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50554000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36174000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36467000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34544000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27397000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26312000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21262000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30973000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71109000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68291000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>72676000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>66321000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>75677000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>79468000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>75439000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68172000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>67816000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>60018000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>56511000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>55863000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>51007000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47804000</v>
+      </c>
+      <c r="E9" s="3">
         <v>47345000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35269000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>38868000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30300000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28080000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22756000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35338000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50501000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13668000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26482000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59602000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57788000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61388000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53937000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65311000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>67125000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>64037000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>57232000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>57794000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50260000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>48316000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>46663000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>44003000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7207000</v>
+      </c>
+      <c r="E10" s="3">
         <v>20521000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13989000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11686000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5874000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8387000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11788000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-7941000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-24189000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7594000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4491000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11507000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10503000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11288000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12384000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10366000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12343000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11402000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10940000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10022000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>9758000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8195000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9200000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7004000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,85 +1027,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E12" s="3">
         <v>128000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>92000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>102000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>116000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>107000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>99000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>428000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>380000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19348000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>404000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>266000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>185000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>146000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>367000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>457000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>310000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>164000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>514000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>149000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>80000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>97000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>151000</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,162 +1185,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1428000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-843000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25532000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>961000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3169000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-721000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1449000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>330000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11727000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1154000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3672000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3499000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>908000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>122000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>59000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>633000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>354000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>72000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2321000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>317000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>954000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>704000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>435000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3467000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3512000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3625000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3863000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3944000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3631000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3367000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3426000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3467000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3937000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4059000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4434000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4297000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4588000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4461000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3987000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3728000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3811000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3931000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4045000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3904000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3793000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3842000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3642000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53330000</v>
+      </c>
+      <c r="E17" s="3">
         <v>53595000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67598000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47159000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37439000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31523000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28116000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26570000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25278000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41515000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34581000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70970000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68417000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>69676000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61654000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>73469000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>74597000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71295000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>64543000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67290000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>57195000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>55700000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>53713000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>50804000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1681000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14271000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18340000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3395000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1265000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4944000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6428000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>827000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1034000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>139000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-126000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3000000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4667000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2208000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4871000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4144000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3629000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>526000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2823000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>811000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2150000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>203000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,162 +1564,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-208000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>647000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>770000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>194000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>114000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>263000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-884000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-916000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>110000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>101000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>148000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>115000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>180000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>563000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>846000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>282000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>656000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>132000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>117000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>414000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5637000</v>
+      </c>
+      <c r="E21" s="3">
         <v>17654000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13866000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7784000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3481000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8797000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9970000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3667000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-367000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4207000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4748000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7736000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9243000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6375000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9162000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8801000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7842000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3996000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7076000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5474000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6218000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3151000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,162 +1802,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1980000</v>
+      </c>
+      <c r="E23" s="3">
         <v>14063000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17540000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4042000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-495000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5138000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6542000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1090000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>150000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>249000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3148000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4782000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2388000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5434000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4990000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3911000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1182000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2955000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>928000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2115000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>617000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3964000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4527000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2530000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1464000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1850000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1784000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1642000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-395000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>457000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-139000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>231000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>706000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1244000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1783000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1617000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2031000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2117000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1501000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>260000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1198000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>772000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>623000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>74000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1984000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9536000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20070000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2578000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2345000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3354000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4900000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1485000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-307000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-731000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1904000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2999000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>771000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3403000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2873000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2410000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>922000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1757000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>156000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1492000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>543000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2163000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9257000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20384000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2326000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2545000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3116000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4666000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1358000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-450000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-749000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2934000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>766000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3349000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2798000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2348000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>886000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1769000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>143000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1449000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>497000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2263,8 +2323,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2272,8 +2332,8 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2282,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>121000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-299000</v>
+      </c>
+      <c r="E32" s="3">
         <v>208000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-647000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-770000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-194000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-114000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-263000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>884000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1351000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>916000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-110000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-101000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-148000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-115000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-180000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-563000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-846000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-282000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-656000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-132000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-117000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>35000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-414000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2163000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9257000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20384000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2326000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2545000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3116000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4666000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1358000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-450000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-749000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2934000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>766000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3349000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2798000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2469000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>27000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1769000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>143000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1449000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>497000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2163000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9257000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20384000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2326000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2545000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3116000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4666000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1358000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-450000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-749000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2934000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>766000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3349000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2798000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2469000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>27000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1769000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>143000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1449000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>497000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,701 +2989,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29304000</v>
+      </c>
+      <c r="E41" s="3">
         <v>33108000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34414000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30681000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30694000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34256000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31676000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31111000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30749000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34217000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18139000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22472000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19692000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20674000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21256000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22468000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26192000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22185000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22242000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25586000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25780000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>23270000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23794000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>23484000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E42" s="3">
         <v>130000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>103000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>280000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>191000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>164000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>216000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>333000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>298000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>122000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>88000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>169000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>135000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>134000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>222000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>100000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>106000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>114000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>125000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>84000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>77000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>39000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>44000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35395000</v>
+      </c>
+      <c r="E43" s="3">
         <v>39686000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36218000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28036000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26299000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24331000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20901000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19078000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17190000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17529000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19166000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26063000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24228000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25586000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25795000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25823000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28593000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26211000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24645000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25800000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>22846000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21482000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>22378000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>22128000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29492000</v>
+      </c>
+      <c r="E44" s="3">
         <v>34257000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30109000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23711000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>25232000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22608000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20873000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16873000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13840000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12504000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11641000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20880000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19240000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>20042000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>21426000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17988000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>21894000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>21004000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>20802000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>19011000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18078000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16449000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>17236000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>17655000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13949000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19619000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19287000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9882000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8060000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5394000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4451000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5587000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8748000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9599000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15270000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12475000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12633000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5106000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4086000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4809000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8873000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7185000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4393000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4446000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5581000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3440000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3559000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4502000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108440000</v>
+      </c>
+      <c r="E46" s="3">
         <v>126800000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>120131000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92590000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>90476000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>86753000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78117000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>72982000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70825000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73971000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64304000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82059000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75907000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>71543000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>72697000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>71310000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>85652000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>76691000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>72196000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>74968000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>72369000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>64718000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>67006000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>67813000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27385000</v>
+      </c>
+      <c r="E47" s="3">
         <v>22266000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20200000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>37142000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>38319000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36897000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>36296000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>35274000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32271000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32550000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30751000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34378000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32114000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32309000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31796000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30132000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29491000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29389000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>29278000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28310000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>25689000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>26971000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27258000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>25740000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>105045000</v>
+      </c>
+      <c r="E48" s="3">
         <v>107151000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>109884000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>112902000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>114458000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116177000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>112927000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114836000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116580000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>117208000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>130226000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>132642000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>134661000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>145291000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>144625000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>135261000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>122661000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>124390000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>129002000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>129471000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>130651000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>130715000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>129817000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>129757000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17456000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17895000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18235000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18824000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18689000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18734000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18605000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18573000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18750000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18339000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27247000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27407000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26796000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27789000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28782000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29488000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29126000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29127000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29713000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29906000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30100000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28794000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29622000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>29377000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25156000</v>
+      </c>
+      <c r="E52" s="3">
         <v>25021000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27062000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25814000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24594000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25525000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23980000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25989000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21824000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21113000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21336000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18708000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16785000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16230000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15381000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15985000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16012000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16029000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15098000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13860000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12680000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11917000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11256000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10629000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>283482000</v>
+      </c>
+      <c r="E54" s="3">
         <v>299133000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>295512000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>287272000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>286536000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>284086000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>269925000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>267654000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>260250000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>263181000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>273864000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>295194000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>286263000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>293162000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>293281000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>282176000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>282942000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>275626000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>275287000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>276515000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>271489000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>263115000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>264959000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>263316000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4169,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56270000</v>
+      </c>
+      <c r="E57" s="3">
         <v>64015000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61195000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52611000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49406000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45198000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40709000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36014000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33823000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32134000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34420000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46829000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43203000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44774000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46749000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46265000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47125000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46635000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42995000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>44209000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39965000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>36642000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>37548000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>37915000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5719000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8214000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6949000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7304000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5455000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9447000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7055000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11292000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12920000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13410000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14473000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12554000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9568000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10771000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13579000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9373000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9175000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10625000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9028000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7739000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8891000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7385000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7360000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6634000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42153000</v>
+      </c>
+      <c r="E59" s="3">
         <v>37278000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33041000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20372000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23251000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15925000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12951000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12493000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11334000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11529000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14805000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14212000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12197000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11310000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10944000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12599000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13627000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12271000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11784000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12778000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10710000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10815000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11218000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13805000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>104142000</v>
+      </c>
+      <c r="E60" s="3">
         <v>109507000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101185000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80287000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78112000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70570000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>60715000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59799000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58077000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57073000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63698000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>73595000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64968000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>66855000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71272000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68237000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>69927000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>69531000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>63807000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>64726000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>59566000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>54842000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>56126000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>58354000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48736000</v>
+      </c>
+      <c r="E61" s="3">
         <v>52708000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>62123000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>62483000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>66387000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>67663000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>68098000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>70634000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69171000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>71900000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>64017000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>64892000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>65938000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>67161000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>62705000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>56426000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>54960000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>49733000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>53161000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>55491000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>56893000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>55619000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>54472000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>51666000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57271000</v>
+      </c>
+      <c r="E62" s="3">
         <v>55355000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53685000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54063000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52771000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52621000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50526000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>51653000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50847000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51397000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55669000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55999000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55342000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55523000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55968000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55965000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54635000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>54592000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>56154000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>55894000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>54892000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>54193000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>55079000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>56453000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>225301000</v>
+      </c>
+      <c r="E66" s="3">
         <v>232524000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>232213000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>211809000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>212061000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>205289000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>193966000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>196404000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>192295000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>194317000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>185578000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>196782000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>188341000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>191677000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>192082000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>182732000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>181454000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>175805000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>175100000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>178024000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>172968000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>166312000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>167319000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>168030000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5029,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>21000</v>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,8 +5317,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5176,56 +5349,59 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>102410000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>102690000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>105374000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>105408000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>107393000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>107090000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>104824000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>102600000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>103858000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>102741000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>101791000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>102726000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>104257000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58181000</v>
+      </c>
+      <c r="E76" s="3">
         <v>66609000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63299000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75463000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74475000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78797000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75959000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71250000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67955000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68864000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88286000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>98391000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>97901000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>101464000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101178000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>99423000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>101467000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>99800000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>100166000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>98470000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>98500000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>96782000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>97619000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>95265000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2163000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9257000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20384000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2326000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2545000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3116000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4666000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1358000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-450000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-749000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2934000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>766000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3349000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2798000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2469000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>27000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1769000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>143000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1449000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>497000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3591000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3674000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3742000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3976000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3659000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3428000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3517000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13555000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4157000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3958000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4773000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4588000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4461000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3987000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3728000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3811000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3931000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2814000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4121000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4546000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4103000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2534000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8288000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10863000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8210000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6116000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5976000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5411000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6109000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2269000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5204000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3737000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>952000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7603000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6056000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6815000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5296000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6829000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6092000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6306000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3646000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5903000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6024000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4890000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2114000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2428000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3105000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2602000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2772000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2647000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2573000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2509000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1883000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1332000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2557000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2232000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>427000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>573000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1140000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1068000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1101000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9197000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9246000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2469000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4739000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6804000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-623000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14663000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-589000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2245000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>254000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1822000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>631000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-322000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-414000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-125000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-58000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-177000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>24000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-58000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>336000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>268000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-183000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>119000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-118000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>32000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-105000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-56000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-314000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>145000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>29000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>146000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>202000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>167000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-649000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3804000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1306000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3733000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3562000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2580000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>565000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16514000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2780000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-982000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-582000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4007000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-57000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-194000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2510000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-524000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>310000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,365 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56182000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>69257000</v>
+      </c>
+      <c r="F8" s="3">
         <v>55011000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>67866000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>49258000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>50554000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>36174000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>36467000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>34544000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>27397000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>26312000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>21262000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>30973000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>71109000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>68291000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>72676000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>66321000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>75677000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>79468000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>75439000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>68172000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>67816000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>60018000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>56511000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>55863000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>51007000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36569000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41476000</v>
+      </c>
+      <c r="F9" s="3">
         <v>47804000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>47345000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>35269000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>38868000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>30300000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>28080000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>22756000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>35338000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>50501000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>13668000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>26482000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>59602000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>57788000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>61388000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>53937000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>65311000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>67125000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>64037000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>57232000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>57794000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>50260000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>48316000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>46663000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>44003000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19613000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>27781000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7207000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>20521000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13989000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>11686000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5874000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8387000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>11788000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-7941000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-24189000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7594000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4491000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11507000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10503000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11288000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>12384000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>10366000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>12343000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>11402000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>10940000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>10022000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>9758000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>8195000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>9200000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>7004000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,88 +1052,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F12" s="3">
         <v>225000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>128000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>92000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>102000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>116000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>107000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>99000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>428000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>380000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>19348000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>404000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>266000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>185000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>146000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>367000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>457000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>310000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>164000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>514000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>149000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>80000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>97000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>151000</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,168 +1220,186 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3479000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1428000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-843000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>25532000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>961000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-3169000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-721000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-1449000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>330000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>11727000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1154000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3672000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3499000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>908000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>122000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>59000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>633000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>354000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>72000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>2321000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>317000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>954000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>704000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>435000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3714000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3467000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3512000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3625000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3863000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3944000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3631000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3367000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3426000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3467000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3937000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4059000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4434000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>4297000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>4588000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>4461000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3987000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>3728000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>3811000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>3931000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>4045000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>3904000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>3793000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>3842000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>3642000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1425,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44166000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>52463000</v>
+      </c>
+      <c r="F17" s="3">
         <v>53330000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>53595000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>67598000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>47159000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>37439000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>31523000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>28116000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>26570000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>25278000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>41515000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>34581000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>70970000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>68417000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>69676000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>61654000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>73469000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>74597000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>71295000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>64543000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>67290000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>57195000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>55700000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>53713000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>50804000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12016000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16794000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1681000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>14271000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-18340000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3395000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1265000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4944000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6428000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>827000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1034000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>139000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3000000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>4667000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2208000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4871000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4144000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3629000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>526000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2823000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>811000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2150000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>203000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,168 +1629,182 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>108000</v>
+      </c>
+      <c r="F20" s="3">
         <v>299000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-208000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>647000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>770000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>194000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>114000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>263000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-884000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-916000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>110000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>101000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>148000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>115000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>180000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>563000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>846000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>282000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>656000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>132000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>117000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-35000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>414000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15697000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20298000</v>
+      </c>
+      <c r="F21" s="3">
         <v>5637000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>17654000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-13866000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7784000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3481000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8797000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9970000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3667000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-367000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4207000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4748000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>7736000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>9243000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>6375000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>9162000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>8801000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>7842000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3996000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>7076000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>5474000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>6218000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>3151000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,168 +1883,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11847000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16902000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1980000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>14063000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-17540000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4042000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-495000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5138000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6542000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1090000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>150000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>249000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3148000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4782000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2388000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>5434000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>4990000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3911000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1182000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2955000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>928000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2115000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>617000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3425000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5741000</v>
+      </c>
+      <c r="F24" s="3">
         <v>3964000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4527000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2530000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1464000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1850000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1784000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1642000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-395000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>457000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-139000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>231000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>706000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1244000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1783000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1617000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2031000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2117000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1501000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>260000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1198000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>772000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>623000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>74000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2141,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8422000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11161000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1984000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9536000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-20070000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2578000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2345000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3354000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4900000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1485000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-307000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-731000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1904000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2999000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>771000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3403000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2873000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2410000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>922000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1757000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>156000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1492000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>543000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8218000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10803000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2163000</v>
       </c>
-      <c r="E27" s="3">
-        <v>9257000</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>9256000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-20384000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2326000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2545000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3116000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4666000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1358000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-450000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-749000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1821000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2934000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>766000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3349000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2798000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2348000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>886000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1769000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>143000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1449000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>497000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2399,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2326,35 +2446,35 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>121000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2365,8 +2485,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2571,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2657,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-299000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>208000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-647000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-770000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-194000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-114000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-263000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>884000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1351000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>916000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-110000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-148000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-115000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-180000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-563000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-846000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-282000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-656000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-132000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-117000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>35000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-414000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8218000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10803000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2163000</v>
       </c>
-      <c r="E33" s="3">
-        <v>9257000</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>9256000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-20384000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2326000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2545000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3116000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4666000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1358000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-450000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>19000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-749000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1821000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2934000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>766000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3349000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2798000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2469000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>27000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1769000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>143000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1449000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>497000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2915,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8218000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10803000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2163000</v>
       </c>
-      <c r="E35" s="3">
-        <v>9257000</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>9256000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-20384000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2326000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2545000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3116000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4666000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1358000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-450000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>19000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-749000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1821000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2934000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>766000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3349000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2798000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2469000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>27000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1769000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>143000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1449000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>497000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3128,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,728 +3160,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30433000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>29195000</v>
+      </c>
+      <c r="F41" s="3">
         <v>29304000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>33108000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>34414000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30681000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30694000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>34256000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>31676000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31111000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>30749000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>34217000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>18139000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>22472000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>19692000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>20674000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>21256000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>22468000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>26192000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>22185000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>22242000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>25586000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>25780000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>23270000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>23794000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>23484000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>578000</v>
+      </c>
+      <c r="F42" s="3">
         <v>300000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>130000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>103000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>280000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>191000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>164000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>216000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>333000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>298000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>122000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>88000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>169000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>114000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>135000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>134000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>222000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>100000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>106000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>114000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>125000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>84000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>77000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>39000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>44000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30432000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>34946000</v>
+      </c>
+      <c r="F43" s="3">
         <v>35395000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>39686000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>36218000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28036000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>26299000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>24331000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>20901000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>19078000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>17190000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>17529000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>19166000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>26063000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>24228000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>25586000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>25795000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>25823000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>28593000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>26211000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>24645000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>25800000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>22846000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>21482000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>22378000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>22128000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23905000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>28081000</v>
+      </c>
+      <c r="F44" s="3">
         <v>29492000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>34257000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>30109000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>23711000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>25232000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>22608000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>20873000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>16873000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13840000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>12504000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>11641000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>20880000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>19240000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>20042000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>21426000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>17988000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>21894000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>21004000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>20802000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>19011000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>18078000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>16449000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>17236000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>17655000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14038000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14888000</v>
+      </c>
+      <c r="F45" s="3">
         <v>13949000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>19619000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>19287000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>9882000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8060000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5394000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4451000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5587000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8748000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9599000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15270000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>12475000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>12633000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>5106000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>4086000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4809000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8873000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>7185000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>4393000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>4446000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>5581000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>3440000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>3559000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>4502000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99258000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>107688000</v>
+      </c>
+      <c r="F46" s="3">
         <v>108440000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>126800000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>120131000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>92590000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>90476000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>86753000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>78117000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>72982000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>70825000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>73971000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>64304000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>82059000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>75907000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>71543000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>72697000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>71310000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>85652000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>76691000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>72196000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>74968000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>72369000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>64718000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>67006000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>67813000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26156000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>25634000</v>
+      </c>
+      <c r="F47" s="3">
         <v>27385000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>22266000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>20200000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>37142000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>38319000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>36897000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>36296000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>35274000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>32271000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>32550000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>30751000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>34378000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>32114000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>32309000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>31796000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>30132000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>29491000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>29389000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>29278000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>28310000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>25689000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>26971000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>27258000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>25740000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>105744000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>106044000</v>
+      </c>
+      <c r="F48" s="3">
         <v>105045000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>107151000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>109884000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>112902000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>114458000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>116177000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>112927000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>114836000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>116580000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>117208000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>130226000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>132642000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>134661000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>145291000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>144625000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>135261000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>122661000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>124390000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>129002000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>129471000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>130651000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>130715000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>129817000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>129757000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22298000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>22160000</v>
+      </c>
+      <c r="F49" s="3">
         <v>17456000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17895000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>18235000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>18824000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>18689000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>18734000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>18605000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>18573000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>18750000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>18339000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>27247000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>27407000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>26796000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>27789000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>28782000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>29488000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>29126000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>29127000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>29713000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>29906000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>30100000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>28794000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>29622000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>29377000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +4016,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +4102,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25205000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26594000</v>
+      </c>
+      <c r="F52" s="3">
         <v>25156000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>25021000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>27062000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>25814000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>24594000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>25525000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>23980000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>25989000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>21824000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>21113000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>21336000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>18708000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>16785000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>16230000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>15381000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>15985000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>16012000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>16029000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>15098000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>13860000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>12680000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>11917000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>11256000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>10629000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4274,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278661000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>288120000</v>
+      </c>
+      <c r="F54" s="3">
         <v>283482000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>299133000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>295512000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>287272000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>286536000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>284086000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>269925000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>267654000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>260250000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>263181000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>273864000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>295194000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>286263000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>293162000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>293281000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>282176000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>282942000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>275626000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>275287000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>276515000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>271489000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>263115000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>264959000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>263316000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4396,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,488 +4428,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57854000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>63984000</v>
+      </c>
+      <c r="F57" s="3">
         <v>56270000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>64015000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>61195000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>52611000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>49406000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>45198000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>40709000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36014000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>33823000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>32134000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>34420000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>46829000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>43203000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>44774000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>46749000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>46265000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>47125000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>46635000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>42995000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>44209000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>39965000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>36642000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>37548000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>37915000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4659000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5300000</v>
+      </c>
+      <c r="F58" s="3">
         <v>5719000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8214000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6949000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7304000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5455000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9447000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7055000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11292000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>12920000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13410000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>14473000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>12554000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>9568000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>10771000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>13579000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>9373000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>9175000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>10625000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>9028000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>7739000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>8891000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>7385000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>7360000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>6634000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22074000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>29734000</v>
+      </c>
+      <c r="F59" s="3">
         <v>42153000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>37278000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>33041000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>20372000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>23251000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15925000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12951000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12493000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11334000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11529000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14805000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>14212000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12197000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11310000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10944000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>12599000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>13627000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>12271000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>11784000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>12778000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>10710000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>10815000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>11218000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>13805000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>84587000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>99018000</v>
+      </c>
+      <c r="F60" s="3">
         <v>104142000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>109507000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>101185000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>80287000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>78112000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>70570000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>60715000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>59799000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>58077000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>57073000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>63698000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>73595000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>64968000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>66855000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>71272000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>68237000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>69927000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>69531000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>63807000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>64726000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>59566000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>54842000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>56126000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>58354000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52541000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>50193000</v>
+      </c>
+      <c r="F61" s="3">
         <v>48736000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>52708000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>62123000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>62483000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>66387000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>67663000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>68098000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>70634000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>69171000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>71900000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>64017000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>64892000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>65938000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>67161000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>62705000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>56426000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>54960000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>49733000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>53161000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>55491000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>56893000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>55619000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>54472000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>51666000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54352000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>55919000</v>
+      </c>
+      <c r="F62" s="3">
         <v>57271000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>55355000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>53685000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>54063000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>52771000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>52621000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>50526000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>51653000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>50847000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>51397000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>55669000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>55999000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>55342000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>55523000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>55968000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>55965000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>54635000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>54592000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>56154000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>55894000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>54892000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>54193000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>55079000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>56453000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +5026,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +5112,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5198,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206886000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>220567000</v>
+      </c>
+      <c r="F66" s="3">
         <v>225301000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>232524000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>232213000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>211809000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>212061000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>205289000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>193966000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>196404000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>192295000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>194317000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>185578000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>196782000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>188341000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>191677000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>192082000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>182732000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>181454000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>175805000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>175100000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>178024000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>172968000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>166312000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>167319000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>168030000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5320,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5402,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5488,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5199,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>21000</v>
@@ -5240,8 +5574,14 @@
       <c r="AB70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>21000</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,8 +5660,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5352,56 +5698,62 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>102410000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>102690000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>105374000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>105408000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>107393000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>107090000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>104824000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>102600000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>103858000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>102741000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>101791000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>102726000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>104257000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5832,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5918,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +6004,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71775000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>67553000</v>
+      </c>
+      <c r="F76" s="3">
         <v>58181000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>66609000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>63299000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>75463000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>74475000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>78797000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>75959000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>71250000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>67955000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>68864000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>88286000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>98391000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>97901000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>101464000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>101178000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>99423000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>101467000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>99800000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>100166000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>98470000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>98500000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>96782000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>97619000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>95265000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +6176,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8218000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10803000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2163000</v>
       </c>
-      <c r="E81" s="3">
-        <v>9257000</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>9256000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-20384000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2326000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2545000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3116000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4666000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1358000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-450000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>19000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-749000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1821000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2934000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>766000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3349000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2798000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2469000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>27000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1769000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>143000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1449000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>497000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6389,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3850000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3396000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3657000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3591000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3674000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3742000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3976000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3659000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3428000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3517000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13555000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4157000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3958000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4773000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>4588000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>4461000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>3987000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>3728000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>3811000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>3931000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2814000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>4121000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>4546000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>4103000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>2534000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6557,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6643,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6729,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6815,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6901,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7622000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13571000</v>
+      </c>
+      <c r="F89" s="3">
         <v>8288000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>10863000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8210000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6116000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5976000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5411000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6109000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2269000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5204000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3737000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>952000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7603000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6056000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>6815000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5296000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>6829000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6092000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>6306000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3646000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>5903000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>6024000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>4890000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>2114000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>2428000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +7023,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3129000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3696000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3105000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2602000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2772000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2647000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +7191,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7277,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2819000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6748000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2573000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2509000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1883000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1332000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2557000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2232000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>427000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>573000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7399,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1183000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1088000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1140000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1068000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1101000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7567,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7653,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7739,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3551000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7109000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-9197000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-9246000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2469000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4739000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6804000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-623000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>14663000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-589000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2245000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>254000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1822000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>631000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-322000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-414000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-125000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-58000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-177000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>24000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-58000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>336000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>268000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-42000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-183000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>119000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-118000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>32000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-105000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-56000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-314000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>145000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>29000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>146000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>202000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>167000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-649000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3804000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1306000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3733000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3562000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2580000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>565000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16514000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2780000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-982000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-582000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4007000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-57000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-194000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2510000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-524000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>310000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48538000</v>
+      </c>
+      <c r="E8" s="3">
         <v>56182000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>69257000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55011000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67866000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>49258000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50554000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36174000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36467000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34544000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27397000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26312000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21262000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30973000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71109000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68291000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>72676000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>66321000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>75677000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>79468000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>75439000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>68172000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>67816000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>60018000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>56511000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>55863000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>51007000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35789000</v>
+      </c>
+      <c r="E9" s="3">
         <v>36569000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41476000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47804000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47345000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>35269000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38868000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30300000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28080000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22756000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35338000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50501000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13668000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>26482000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59602000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>57788000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>61388000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>53937000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>65311000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>67125000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>64037000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>57232000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>57794000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>50260000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>48316000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>46663000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>44003000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12749000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19613000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27781000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7207000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20521000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13989000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11686000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5874000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8387000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11788000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-7941000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-24189000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7594000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4491000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11507000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10503000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11288000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12384000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10366000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12343000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11402000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10940000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10022000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>9758000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8195000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>9200000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7004000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,94 +1066,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E12" s="3">
         <v>106000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>140000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>225000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>128000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>92000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>102000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>116000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>107000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>99000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>428000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>380000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19348000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>404000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>266000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>185000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>146000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>367000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>457000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>310000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>164000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>514000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>149000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>80000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>97000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>151000</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,180 +1242,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1315000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-56000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3479000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1428000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-843000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25532000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>961000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3169000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-721000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1449000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>330000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11727000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1154000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3672000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3499000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>908000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>122000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>59000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>633000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>354000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>72000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2321000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>317000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>954000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>704000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>435000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3923000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3714000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3467000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3512000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3625000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3863000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3944000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3631000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3367000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3426000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3467000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3937000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4059000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4434000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4297000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4588000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4461000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3987000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3728000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3811000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3931000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4045000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3904000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3793000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3842000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3642000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45154000</v>
+      </c>
+      <c r="E17" s="3">
         <v>44166000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52463000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>53330000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53595000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67598000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47159000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37439000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31523000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28116000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26570000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25278000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41515000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34581000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70970000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>68417000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69676000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>61654000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>73469000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>74597000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>71295000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>64543000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67290000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>57195000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>55700000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>53713000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>50804000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3384000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12016000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16794000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1681000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14271000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18340000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3395000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1265000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4944000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6428000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>827000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1034000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>139000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-126000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3000000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4667000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2208000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4871000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4144000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3629000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>526000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2823000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>811000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2150000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>203000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,180 +1663,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-169000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>108000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>299000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-208000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>647000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>770000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>194000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>114000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>263000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-884000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-916000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>110000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>101000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>148000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>115000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>180000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>563000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>846000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>282000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>656000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>132000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>117000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-35000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>414000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7658000</v>
+      </c>
+      <c r="E21" s="3">
         <v>15697000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20298000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5637000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17654000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13866000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7784000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3481000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8797000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9970000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3667000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-367000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4207000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4748000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7736000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9243000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6375000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9162000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8801000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7842000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3996000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7076000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5474000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>6218000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3151000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1889,180 +1928,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3494000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11847000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16902000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1980000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14063000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17540000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4042000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-495000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5138000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6542000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1090000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>150000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>249000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3148000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4782000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2388000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5434000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4990000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3911000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1182000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2955000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>928000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2115000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>617000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1541000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3425000</v>
       </c>
-      <c r="E24" s="3">
-        <v>5741000</v>
-      </c>
       <c r="F24" s="3">
+        <v>3907000</v>
+      </c>
+      <c r="G24" s="3">
         <v>3964000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4527000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2530000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1464000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1850000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1784000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1642000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-395000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>457000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>231000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>706000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1244000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1783000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1617000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2031000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2117000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1501000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>260000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1198000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>772000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>623000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>74000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1953000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8422000</v>
       </c>
-      <c r="E26" s="3">
-        <v>11161000</v>
-      </c>
       <c r="F26" s="3">
+        <v>12995000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1984000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9536000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20070000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2578000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2345000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3354000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4900000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1485000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-307000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-731000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1904000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2999000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>771000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3403000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2873000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2410000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>922000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1757000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>156000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1492000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>543000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8218000</v>
       </c>
-      <c r="E27" s="3">
-        <v>10803000</v>
-      </c>
       <c r="F27" s="3">
+        <v>12637000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2163000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9256000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20384000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2326000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2545000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3116000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4666000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1358000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-450000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-749000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1821000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2934000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>766000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3349000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2798000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2348000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>886000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1769000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>143000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1449000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>497000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,31 +2462,34 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-1834000</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2452,8 +2512,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2461,8 +2521,8 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2471,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>121000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E32" s="3">
         <v>169000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-108000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-299000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>208000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-647000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-770000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-194000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-114000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-263000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>884000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1351000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>916000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-110000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-101000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-148000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-115000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-180000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-563000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-846000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-282000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-656000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-132000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-117000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>35000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-414000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8218000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10803000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2163000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9256000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20384000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2326000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2545000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3116000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4666000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1358000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-450000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-749000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1821000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2934000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>766000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3349000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2798000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2469000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>27000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1769000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>143000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1449000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>497000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8218000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10803000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2163000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9256000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20384000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2326000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2545000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3116000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4666000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1358000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-450000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-749000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1821000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2934000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>766000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3349000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2798000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2469000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>27000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1769000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>143000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1449000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>497000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,782 +3247,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28914000</v>
+      </c>
+      <c r="E41" s="3">
         <v>30433000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29195000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29304000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33108000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34414000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30681000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30694000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34256000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31676000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31111000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30749000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34217000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18139000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22472000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19692000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20674000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21256000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22468000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26192000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>22185000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>22242000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25586000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25780000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>23270000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>23794000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>23484000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E42" s="3">
         <v>450000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>578000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>300000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>130000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>103000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>280000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>191000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>164000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>216000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>333000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>298000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>122000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>88000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>169000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>114000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>135000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>134000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>222000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>100000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>106000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>114000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>125000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>84000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>77000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>39000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>44000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28665000</v>
+      </c>
+      <c r="E43" s="3">
         <v>30432000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34946000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35395000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39686000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36218000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28036000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26299000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24331000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20901000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19078000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17190000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17529000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19166000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26063000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24228000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25586000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25795000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25823000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>28593000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>26211000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>24645000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>25800000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>22846000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21482000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>22378000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>22128000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23349000</v>
+      </c>
+      <c r="E44" s="3">
         <v>23905000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28081000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29492000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>34257000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>30109000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23711000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>25232000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22608000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20873000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16873000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13840000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12504000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11641000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20880000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>19240000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>20042000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>21426000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17988000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>21894000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>21004000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>20802000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>19011000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>18078000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>16449000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>17236000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>17655000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13715000</v>
+      </c>
+      <c r="E45" s="3">
         <v>14038000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14888000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13949000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19619000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19287000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9882000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8060000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5394000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4451000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5587000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8748000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9599000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15270000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12475000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12633000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5106000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4086000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4809000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8873000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7185000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4393000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4446000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5581000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3440000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3559000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4502000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95314000</v>
+      </c>
+      <c r="E46" s="3">
         <v>99258000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>107688000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108440000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>126800000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>120131000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92590000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>90476000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86753000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78117000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72982000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>70825000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>73971000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>64304000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>82059000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75907000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>71543000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>72697000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>71310000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>85652000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>76691000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>72196000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>74968000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>72369000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>64718000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>67006000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>67813000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26027000</v>
+      </c>
+      <c r="E47" s="3">
         <v>26156000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25634000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27385000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22266000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20200000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>37142000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>38319000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36897000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36296000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35274000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32271000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32550000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30751000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>34378000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32114000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>32309000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31796000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>30132000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29491000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>29389000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>29278000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>28310000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>25689000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>26971000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27258000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>25740000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>108126000</v>
+      </c>
+      <c r="E48" s="3">
         <v>105744000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>106044000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>105045000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>107151000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>109884000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>112902000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114458000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116177000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>112927000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114836000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>116580000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>117208000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>130226000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>132642000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>134661000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>145291000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>144625000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>135261000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>122661000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>124390000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>129002000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>129471000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>130651000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>130715000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>129817000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>129757000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22653000</v>
+      </c>
+      <c r="E49" s="3">
         <v>22298000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22160000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17456000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17895000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18235000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18824000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18689000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18734000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18605000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18573000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18750000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18339000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27247000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27407000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26796000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27789000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28782000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29488000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29126000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>29127000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29713000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29906000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>30100000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>28794000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>29622000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>29377000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23947000</v>
+      </c>
+      <c r="E52" s="3">
         <v>25205000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26594000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25156000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25021000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27062000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25814000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24594000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25525000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23980000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25989000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21824000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21113000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21336000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18708000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16785000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16230000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15381000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15985000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16012000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16029000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>15098000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>13860000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>12680000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11917000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>11256000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10629000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276067000</v>
+      </c>
+      <c r="E54" s="3">
         <v>278661000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>288120000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>283482000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>299133000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>295512000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>287272000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>286536000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>284086000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>269925000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>267654000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>260250000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>263181000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>273864000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>295194000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>286263000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>293162000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>293281000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>282176000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>282942000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>275626000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>275287000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>276515000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>271489000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>263115000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>264959000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>263316000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,524 +4559,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56183000</v>
+      </c>
+      <c r="E57" s="3">
         <v>57854000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63984000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56270000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64015000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61195000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52611000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49406000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45198000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40709000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36014000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33823000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32134000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34420000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46829000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43203000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44774000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46749000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46265000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47125000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46635000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42995000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>44209000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>39965000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>36642000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>37548000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>37915000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4803000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4659000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5719000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8214000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6949000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7304000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5455000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9447000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7055000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11292000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12920000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13410000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14473000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12554000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9568000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10771000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13579000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9373000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9175000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10625000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9028000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7739000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8891000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7385000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7360000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6634000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20479000</v>
+      </c>
+      <c r="E59" s="3">
         <v>22074000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29734000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42153000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37278000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33041000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20372000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23251000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15925000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12951000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12493000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11334000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11529000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14805000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14212000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12197000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11310000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10944000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12599000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13627000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12271000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11784000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12778000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10710000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10815000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11218000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13805000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81465000</v>
+      </c>
+      <c r="E60" s="3">
         <v>84587000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99018000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>104142000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>109507000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101185000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>80287000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78112000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70570000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60715000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59799000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>58077000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57073000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>63698000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>73595000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>64968000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>66855000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>71272000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>68237000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>69927000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>69531000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>63807000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>64726000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>59566000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>54842000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>56126000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>58354000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>55896000</v>
+      </c>
+      <c r="E61" s="3">
         <v>52541000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50193000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48736000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52708000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>62123000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>62483000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>66387000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>67663000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>68098000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>70634000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>69171000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>71900000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>64017000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>64892000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>65938000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>67161000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>62705000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>56426000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>54960000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>49733000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>53161000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>55491000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>56893000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>55619000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>54472000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>51666000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53103000</v>
+      </c>
+      <c r="E62" s="3">
         <v>54352000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55919000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>57271000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55355000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53685000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54063000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52771000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52621000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50526000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>51653000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50847000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51397000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55669000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55999000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55342000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>55523000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>55968000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55965000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>54635000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>54592000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>56154000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>55894000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>54892000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>54193000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>55079000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>56453000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>205728000</v>
+      </c>
+      <c r="E66" s="3">
         <v>206886000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220567000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>225301000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>232524000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>232213000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>211809000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>212061000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>205289000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>193966000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>196404000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>192295000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>194317000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>185578000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>196782000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>188341000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>191677000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>192082000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>182732000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>181454000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>175805000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>175100000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>178024000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>172968000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>166312000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>167319000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>168030000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5539,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>21000</v>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,8 +5836,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5704,56 +5877,59 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>102410000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>102690000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>105374000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>105408000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>107393000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>107090000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>104824000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>102600000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>103858000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>102741000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>101791000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>102726000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>104257000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70339000</v>
+      </c>
+      <c r="E76" s="3">
         <v>71775000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67553000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58181000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>66609000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>63299000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75463000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74475000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78797000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75959000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71250000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67955000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>68864000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>88286000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>98391000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>97901000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>101464000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>101178000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>99423000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>101467000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>99800000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>100166000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>98470000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>98500000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>96782000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>97619000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>95265000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8218000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10803000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2163000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9256000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20384000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2326000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2545000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3116000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4666000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1358000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-450000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-749000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1821000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2934000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>766000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3349000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2798000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2469000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>27000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1769000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>143000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1449000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>497000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4164000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3850000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3396000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3657000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3591000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3674000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3742000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3976000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3659000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3428000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3517000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13555000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4157000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3958000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4773000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4588000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4461000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3987000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3728000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3811000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3931000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2814000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4121000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4546000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4103000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>2534000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6293000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7622000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13571000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8288000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10863000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8210000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6116000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5976000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5411000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6109000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2269000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5204000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3737000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>952000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7603000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6056000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6815000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5296000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6829000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6092000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6306000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3646000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5903000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6024000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4890000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2114000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2428000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3453000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3129000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3696000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3105000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2602000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2772000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2647000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4205000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2819000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6748000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2573000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2509000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1883000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1332000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2557000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2232000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>427000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>573000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,94 +7633,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1153000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1183000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1088000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1140000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1068000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1101000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3607000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3551000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7109000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9197000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9246000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2469000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4739000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6804000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-623000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14663000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-589000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2245000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>254000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1822000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>631000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>177000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-322000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-414000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-125000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-58000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-177000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-58000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>336000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>268000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-42000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-183000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>119000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-118000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>32000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-105000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-56000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-314000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>145000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>29000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>146000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>202000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>167000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-649000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1519000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1238000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3804000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1306000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3733000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3562000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2580000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>565000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16514000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2780000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-982000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-582000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4007000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-57000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-194000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2510000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-524000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>310000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2003000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>BP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,389 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>53269000</v>
+      </c>
+      <c r="E8" s="3">
         <v>48538000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56182000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69257000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55011000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67866000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>49258000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50554000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36174000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36467000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34544000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27397000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26312000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21262000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30973000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71109000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>68291000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>72676000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>66321000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>75677000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>79468000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>75439000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>68172000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>67816000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>60018000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>56511000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>55863000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>51007000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>47047000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36468000</v>
+      </c>
+      <c r="E9" s="3">
         <v>35789000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36569000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41476000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47804000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47345000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35269000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38868000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30300000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28080000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22756000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35338000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50501000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13668000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>26482000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59602000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>57788000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>61388000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>53937000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>65311000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>67125000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>64037000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>57232000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>57794000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>50260000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>48316000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>46663000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>44003000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>40644000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16801000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12749000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19613000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27781000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7207000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20521000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13989000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11686000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5874000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8387000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11788000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-7941000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-24189000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7594000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4491000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11507000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10503000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11288000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12384000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10366000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12343000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11402000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10940000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10022000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>9758000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8195000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>9200000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7004000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>6403000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,97 +1079,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E12" s="3">
         <v>293000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>106000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>140000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>225000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>128000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>92000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>102000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>116000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>107000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>99000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>428000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>380000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19348000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>404000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>266000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>185000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>146000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>367000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>457000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>310000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>164000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>514000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>149000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>80000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>97000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>151000</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,186 +1261,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1315000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-56000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3479000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1428000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-843000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25532000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>961000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3169000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-721000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1449000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>330000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11727000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1154000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3672000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3499000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>908000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>122000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>59000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>633000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>354000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>72000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2321000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>317000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>954000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>704000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>435000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>-1022000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4145000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3923000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3800000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3714000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3467000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3512000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3625000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3863000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3944000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3631000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3367000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3426000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3467000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3937000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4059000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4434000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4297000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4588000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4461000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3987000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3728000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3811000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3931000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4045000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3904000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3793000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3842000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3642000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>3496000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45465000</v>
+      </c>
+      <c r="E17" s="3">
         <v>45154000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44166000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52463000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53330000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53595000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67598000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47159000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37439000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31523000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28116000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26570000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25278000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41515000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34581000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>70970000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>68417000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>69676000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>61654000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>73469000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>74597000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>71295000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>64543000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>67290000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>57195000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>55700000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>53713000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>50804000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>45766000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7804000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3384000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12016000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16794000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1681000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14271000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18340000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3395000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1265000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4944000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6428000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>827000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1034000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20253000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3608000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>139000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-126000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3000000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4667000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2208000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4871000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4144000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3629000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>526000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2823000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>811000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2150000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>203000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1281000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,186 +1696,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-495000</v>
+      </c>
+      <c r="E20" s="3">
         <v>110000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-169000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>108000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>299000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-208000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>647000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>770000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>194000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>114000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>263000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-884000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1351000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-916000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>110000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>101000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>148000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>115000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>180000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>563000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>846000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>282000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>656000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>132000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>117000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-35000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>414000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11528000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7658000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15697000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20298000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5637000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17654000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13866000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7784000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3481000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8797000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9970000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5250000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3667000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8049000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-367000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4207000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4748000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7736000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9243000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6375000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9162000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8801000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7842000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3996000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7076000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5474000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>6218000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3151000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>5512000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1931,186 +1970,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7309000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3494000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11847000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16902000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1980000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14063000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17540000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4042000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-495000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5138000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6542000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1090000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>150000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21604000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4524000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>249000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-25000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3148000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4782000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2388000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5434000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4990000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3911000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1182000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2955000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>928000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2115000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>617000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1329000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2240000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1541000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3425000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3907000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3964000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4527000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2530000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1464000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1850000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1784000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1642000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-395000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>457000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4082000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-139000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>231000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>706000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1244000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1783000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1617000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2031000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2117000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1501000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>260000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1198000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>772000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>623000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>74000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-248000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5069000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1953000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8422000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12995000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1984000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9536000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20070000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2578000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2345000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3354000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4900000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1485000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-307000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17522000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-731000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1904000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2999000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>771000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3403000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2873000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2410000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>922000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1757000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>156000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1492000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>543000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1577000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1792000</v>
+        <v>4858000</v>
       </c>
       <c r="E27" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="F27" s="3">
         <v>8218000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12637000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2163000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9256000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20384000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2326000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2545000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3116000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4666000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1358000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-450000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16849000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4365000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-749000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1821000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2934000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>766000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3349000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2798000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2348000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>886000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1769000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>143000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1449000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>497000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,11 +2536,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1834000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2491,8 +2551,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2515,8 +2575,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2524,8 +2584,8 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2534,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>121000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-859000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-110000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>169000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-108000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-299000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>208000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-647000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-770000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-194000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-114000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-263000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>884000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>916000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-110000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-101000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-148000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-115000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-180000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-563000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-846000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-282000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-656000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-132000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-117000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>35000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-414000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1792000</v>
+        <v>4858000</v>
       </c>
       <c r="E33" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="F33" s="3">
         <v>8218000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10803000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2163000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9256000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20384000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2326000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2545000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3116000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4666000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1358000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-450000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16849000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4365000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-749000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1821000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2934000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>766000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3349000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2798000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2469000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>27000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1769000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>143000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1449000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>497000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1792000</v>
+        <v>4858000</v>
       </c>
       <c r="E35" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="F35" s="3">
         <v>8218000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10803000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2163000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9256000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20384000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2326000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2545000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3116000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4666000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1358000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-450000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16849000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4365000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-749000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1821000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2934000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>766000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3349000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2798000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2469000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>27000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1769000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>143000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1449000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>497000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,809 +3333,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29926000</v>
+      </c>
+      <c r="E41" s="3">
         <v>28914000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30433000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29195000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29304000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33108000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34414000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30681000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30694000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34256000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31676000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31111000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30749000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34217000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18139000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22472000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19692000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20674000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21256000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>22468000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26192000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>22185000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>22242000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25586000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>25780000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>23270000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>23794000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>23484000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>25520000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>932000</v>
+      </c>
+      <c r="E42" s="3">
         <v>671000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>450000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>578000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>300000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>130000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>103000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>280000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>191000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>164000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>216000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>333000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>298000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>122000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>88000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>169000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>114000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>135000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>134000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>222000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>100000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>106000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>114000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>125000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>84000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>77000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>39000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>44000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32595000</v>
+      </c>
+      <c r="E43" s="3">
         <v>28665000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30432000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34946000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35395000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39686000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36218000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28036000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26299000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24331000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20901000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19078000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17190000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17529000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19166000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26063000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24228000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25586000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25795000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25823000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>28593000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>26211000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>24645000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>25800000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>22846000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>21482000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>22378000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>22128000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>22059000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25671000</v>
+      </c>
+      <c r="E44" s="3">
         <v>23349000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23905000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28081000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29492000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>34257000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>30109000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23711000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>25232000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22608000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20873000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16873000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13840000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12504000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11641000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>20880000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>19240000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>20042000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>21426000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>17988000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>21894000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>21004000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>20802000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>19011000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>18078000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>16449000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>17236000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>17655000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>15897000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14283000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13715000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14038000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14888000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13949000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19619000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19287000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9882000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8060000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5394000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4451000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5587000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8748000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9599000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15270000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12475000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12633000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5106000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4086000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4809000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8873000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7185000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4393000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4446000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5581000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3440000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3559000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4502000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>5485000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103407000</v>
+      </c>
+      <c r="E46" s="3">
         <v>95314000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99258000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>107688000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>108440000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>126800000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>120131000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>92590000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90476000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>86753000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78117000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72982000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>70825000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>73971000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>64304000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>82059000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75907000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>71543000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>72697000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>71310000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>85652000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>76691000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>72196000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>74968000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>72369000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>64718000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>67006000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>67813000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>69007000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25648000</v>
+      </c>
+      <c r="E47" s="3">
         <v>26027000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26156000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25634000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27385000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22266000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20200000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>37142000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38319000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36897000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36296000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>35274000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32271000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32550000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30751000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34378000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>32114000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>32309000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>31796000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>30132000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>29491000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>29389000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>29278000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>28310000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>25689000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>26971000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27258000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>25740000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>25214000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>107163000</v>
+      </c>
+      <c r="E48" s="3">
         <v>108126000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>105744000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>106044000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>105045000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>107151000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>109884000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>112902000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114458000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>116177000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>112927000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114836000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>116580000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>117208000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>130226000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>132642000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>134661000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>145291000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>144625000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>135261000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>122661000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>124390000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>129002000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>129471000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>130651000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>130715000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>129817000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>129757000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>128262000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22280000</v>
+      </c>
+      <c r="E49" s="3">
         <v>22653000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22298000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22160000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17456000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17895000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18235000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18824000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18689000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18734000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18605000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18573000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18750000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18339000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27247000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27407000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26796000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27789000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28782000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29488000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>29126000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29127000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29713000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>29906000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>30100000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>28794000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>29622000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>29377000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>28367000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21738000</v>
+      </c>
+      <c r="E52" s="3">
         <v>23947000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25205000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26594000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25156000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25021000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27062000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25814000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24594000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25525000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23980000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25989000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21824000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21113000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21336000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18708000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16785000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16230000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15381000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15985000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16012000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>16029000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>15098000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13860000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>12680000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>11917000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>11256000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>10629000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>11366000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280236000</v>
+      </c>
+      <c r="E54" s="3">
         <v>276067000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278661000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>288120000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>283482000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>299133000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>295512000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>287272000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>286536000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>284086000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>269925000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>267654000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>260250000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>263181000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>273864000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>295194000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>286263000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>293162000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>293281000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>282176000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>282942000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>275626000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>275287000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>276515000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>271489000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>263115000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>264959000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>263316000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>262216000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,542 +4689,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60440000</v>
+      </c>
+      <c r="E57" s="3">
         <v>56183000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57854000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63984000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56270000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64015000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61195000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52611000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49406000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45198000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40709000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36014000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33823000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32134000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34420000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46829000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>43203000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>44774000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46749000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46265000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>47125000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46635000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>42995000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>44209000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>39965000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>36642000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>37548000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>37915000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>34662000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5408000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4803000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4659000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5300000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5719000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8214000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6949000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7304000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5455000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9447000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7055000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11292000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12920000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13410000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14473000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12554000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9568000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10771000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13579000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9373000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9175000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10625000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9028000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7739000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8891000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7385000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7360000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6634000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>5689000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19747000</v>
+      </c>
+      <c r="E59" s="3">
         <v>20479000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22074000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29734000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42153000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37278000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33041000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20372000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23251000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15925000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12951000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12493000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11334000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11529000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14805000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14212000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12197000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11310000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10944000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12599000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13627000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12271000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11784000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12778000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10710000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10815000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11218000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>13805000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>14690000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85595000</v>
+      </c>
+      <c r="E60" s="3">
         <v>81465000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>84587000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99018000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>104142000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>109507000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101185000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80287000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78112000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70570000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60715000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59799000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>58077000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57073000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>63698000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>73595000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>64968000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>66855000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>71272000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>68237000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>69927000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>69531000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>63807000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>64726000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>59566000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>54842000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>56126000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>58354000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>55041000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54281000</v>
+      </c>
+      <c r="E61" s="3">
         <v>55896000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52541000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50193000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48736000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>52708000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>62123000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>62483000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>66387000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67663000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>68098000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>70634000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>69171000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>71900000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>64017000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>64892000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>65938000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>67161000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>62705000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>56426000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>54960000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>49733000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>53161000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>55491000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>56893000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>55619000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>54472000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>51666000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>53308000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52684000</v>
+      </c>
+      <c r="E62" s="3">
         <v>53103000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54352000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55919000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>57271000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55355000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>53685000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54063000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52771000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52621000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50526000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>51653000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50847000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51397000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55669000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55999000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>55342000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>55523000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55968000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>55965000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>54635000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>54592000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>56154000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>55894000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>54892000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>54193000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>55079000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>56453000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>61070000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>207818000</v>
+      </c>
+      <c r="E66" s="3">
         <v>205728000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206886000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>220567000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>225301000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>232524000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>232213000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>211809000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>212061000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>205289000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>193966000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>196404000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>192295000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>194317000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>185578000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>196782000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>188341000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>191677000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>192082000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>182732000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>181454000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>175805000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>175100000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>178024000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>172968000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>166312000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>167319000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>168030000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>170840000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5709,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>21000</v>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>21000</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,8 +6009,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5880,56 +6053,59 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>102410000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>102690000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>105374000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>105408000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>107393000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>107090000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>104824000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>102600000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>103858000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>102741000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>101791000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>102726000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>104257000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>100533000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72418000</v>
+      </c>
+      <c r="E76" s="3">
         <v>70339000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71775000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67553000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58181000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>66609000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>63299000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75463000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74475000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78797000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75959000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71250000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67955000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>68864000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>88286000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>98391000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>97901000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>101464000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>101178000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>99423000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>101467000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>99800000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>100166000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>98470000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>98500000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>96782000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>97619000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>95265000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>91355000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1792000</v>
+        <v>4858000</v>
       </c>
       <c r="E81" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="F81" s="3">
         <v>8218000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10803000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2163000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9256000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20384000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2326000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2545000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3116000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4666000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1358000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-450000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16849000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4365000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-749000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1821000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2934000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>766000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3349000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2798000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2469000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>27000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1769000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>143000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1449000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>497000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1620000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,97 +6786,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4219000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4164000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3850000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3396000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3657000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3591000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3674000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3742000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3976000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3659000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3428000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-6340000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3517000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13555000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4157000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3958000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4773000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4588000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4461000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3987000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3728000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3811000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3931000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2814000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4121000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4546000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4103000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>2534000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>4183000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8747000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6293000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7622000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13571000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8288000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10863000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8210000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6116000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5976000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5411000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6109000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2269000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5204000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3737000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>952000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7603000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6056000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6815000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5296000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6829000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6092000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6306000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3646000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5903000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6024000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4890000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2114000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2428000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>2508000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,97 +7464,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3456000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3453000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3129000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3696000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3105000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2666000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2602000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2772000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2647000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3033000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2922000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2577000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3018000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3789000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3936000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3954000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3833000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3695000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5962000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3675000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3484000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3586000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4422000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4136000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4181000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3823000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-4658000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-3379000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3453000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4205000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2819000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6748000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2573000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2509000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1883000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1332000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2557000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2232000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>427000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>573000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3470000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3117000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3229000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3253000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5512000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4980000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9859000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4274000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3651000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3787000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2353000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3914000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4017000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3793000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4446000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-2987000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,97 +7866,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1249000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1153000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1183000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1088000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1140000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1068000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1077000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1101000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1062000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1064000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1059000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1060000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2119000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2102000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2076000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1656000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1779000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1435000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1733000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1410000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1727000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1829000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1627000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1676000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1546000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1182000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-1161000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,271 +8232,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4178000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3607000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3551000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7109000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9197000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9246000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2469000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4739000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6804000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-623000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5913000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3132000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5590000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14663000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1985000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1713000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3667000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1877000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1560000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-589000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2245000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2398000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3337000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3773000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>254000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1599000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1822000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>631000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>2469000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-104000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>177000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-322000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-414000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-125000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-58000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-177000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-58000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>336000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>268000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-183000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>119000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-118000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>32000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-105000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-56000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-314000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>145000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>29000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>146000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>202000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>167000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-649000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1519000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1238000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-109000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3804000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1306000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3733000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3562000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2580000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>565000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3588000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16514000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4333000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2780000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-982000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-582000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3724000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4007000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-57000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3333000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-194000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2510000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-524000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>310000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2036000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>2003000</v>
       </c>
     </row>
